--- a/directory_app/raw_data/WLAX_LETTERWINNER_DATA_complete.xlsx
+++ b/directory_app/raw_data/WLAX_LETTERWINNER_DATA_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/GOV1005 /Project/WLAX_Directory/directory_app/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324BCE31-BA8C-964C-A2AF-EE753FCB8D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6DFF92-9399-B24E-9A10-287804AED3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="460" windowWidth="24780" windowHeight="16120" xr2:uid="{EA26E0FC-545C-F54D-9B10-F7662692507E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1818">
   <si>
     <t>Name</t>
   </si>
@@ -2309,9 +2309,6 @@
     <t>Entertainment, Media</t>
   </si>
   <si>
-    <t>Qunicy</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/melanie-cook-104b926b/</t>
   </si>
   <si>
@@ -2807,9 +2804,6 @@
     <t>Sports, Media, Law</t>
   </si>
   <si>
-    <t>Phorzheimer</t>
-  </si>
-  <si>
     <t>TD Securities</t>
   </si>
   <si>
@@ -4070,9 +4064,6 @@
     <t>Kaitlin</t>
   </si>
   <si>
-    <t>Courier</t>
-  </si>
-  <si>
     <t>Georgetown University, Tufts School of Dental Medicine, Harvard School of Dental Medicine</t>
   </si>
   <si>
@@ -5493,6 +5484,9 @@
   </si>
   <si>
     <t>Newton, MA</t>
+  </si>
+  <si>
+    <t>Pforzheimer</t>
   </si>
 </sst>
 </file>
@@ -5916,9 +5910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520AADE-8F57-7342-A682-D1D49773B414}">
   <dimension ref="A1:Z364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5948,34 +5942,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>544</v>
@@ -6002,10 +5996,10 @@
         <v>2</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>3</v>
@@ -6014,7 +6008,7 @@
         <v>144</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6065,7 +6059,7 @@
         <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>545</v>
@@ -6150,7 +6144,7 @@
         <v>558</v>
       </c>
       <c r="D5" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="E5">
         <v>1997</v>
@@ -6168,21 +6162,21 @@
         <v>154</v>
       </c>
       <c r="Q5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="R5" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="W5" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6194,10 +6188,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E6" s="2">
         <v>1986</v>
@@ -6266,7 +6260,7 @@
         <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E8">
         <v>1994</v>
@@ -6281,22 +6275,22 @@
         <v>265</v>
       </c>
       <c r="P8" s="4" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q8" t="s">
         <v>869</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>870</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>871</v>
-      </c>
-      <c r="S8" t="s">
-        <v>872</v>
       </c>
       <c r="V8" t="s">
         <v>152</v>
       </c>
       <c r="W8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -6311,7 +6305,7 @@
         <v>451</v>
       </c>
       <c r="D9" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E9">
         <v>1987</v>
@@ -6329,10 +6323,10 @@
         <v>641</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="R9" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>25</v>
@@ -6340,10 +6334,10 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W9" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -6358,7 +6352,7 @@
         <v>256</v>
       </c>
       <c r="D10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E10">
         <v>1988</v>
@@ -6373,22 +6367,22 @@
         <v>268</v>
       </c>
       <c r="P10" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>851</v>
+      </c>
+      <c r="R10" t="s">
         <v>852</v>
       </c>
-      <c r="Q10" t="s">
-        <v>852</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>853</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>854</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>855</v>
-      </c>
-      <c r="W10" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6403,7 +6397,7 @@
         <v>297</v>
       </c>
       <c r="D11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E11">
         <v>1983</v>
@@ -6428,7 +6422,7 @@
         <v>665</v>
       </c>
       <c r="Q11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="R11" t="s">
         <v>685</v>
@@ -6442,7 +6436,7 @@
         <v>152</v>
       </c>
       <c r="W11" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="X11"/>
       <c r="Y11"/>
@@ -6487,7 +6481,7 @@
         <v>148</v>
       </c>
       <c r="W12" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -6496,13 +6490,13 @@
         <v>Kaitlin Bancroft</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>444</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E13" s="4">
         <v>2009</v>
@@ -6516,7 +6510,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>1345</v>
+        <v>720</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>268</v>
@@ -6524,16 +6518,16 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>211</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
@@ -6541,7 +6535,7 @@
         <v>152</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
@@ -6571,7 +6565,7 @@
         <v>549</v>
       </c>
       <c r="M14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Q14" t="s">
         <v>146</v>
@@ -6706,7 +6700,7 @@
         <v>277</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="Q17" t="s">
         <v>162</v>
@@ -6777,7 +6771,7 @@
         <v>464</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="E19" s="2">
         <v>1977</v>
@@ -6794,7 +6788,7 @@
         <v>546</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -6824,7 +6818,7 @@
         <v>443</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E20" s="4">
         <v>2004</v>
@@ -6846,24 +6840,24 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="Q20" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="S20" s="4" t="s">
         <v>1339</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>1340</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>1341</v>
       </c>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -6878,7 +6872,7 @@
         <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>704</v>
@@ -6925,15 +6919,15 @@
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M22" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="Q22" t="s">
         <v>167</v>
@@ -6942,7 +6936,7 @@
         <v>168</v>
       </c>
       <c r="S22" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T22"/>
       <c r="U22"/>
@@ -6951,7 +6945,7 @@
       </c>
       <c r="W22"/>
       <c r="X22" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="Y22"/>
       <c r="Z22"/>
@@ -6968,7 +6962,7 @@
         <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E23">
         <v>2005</v>
@@ -6983,19 +6977,19 @@
         <v>268</v>
       </c>
       <c r="Q23" t="s">
+        <v>874</v>
+      </c>
+      <c r="R23" t="s">
         <v>875</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>876</v>
-      </c>
-      <c r="S23" t="s">
-        <v>877</v>
       </c>
       <c r="V23" t="s">
         <v>148</v>
       </c>
       <c r="W23" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
@@ -7118,7 +7112,7 @@
         <v>163</v>
       </c>
       <c r="V26" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="W26" t="s">
         <v>207</v>
@@ -7178,7 +7172,7 @@
         <v>85</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>711</v>
@@ -7236,7 +7230,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E29" s="2">
         <v>1981</v>
@@ -7250,10 +7244,10 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -7264,7 +7258,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7298,7 +7292,7 @@
         <v>273</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q30" t="s">
         <v>211</v>
@@ -7917,7 +7911,7 @@
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43" s="2" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
@@ -7941,7 +7935,7 @@
         <v>312</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E44" s="2">
         <v>1992</v>
@@ -7968,7 +7962,7 @@
         <v>260</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E45" s="2">
         <v>1997</v>
@@ -8046,7 +8040,7 @@
         <v>677</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -8234,7 +8228,7 @@
         <v>163</v>
       </c>
       <c r="V50" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="W50" t="s">
         <v>697</v>
@@ -8249,7 +8243,7 @@
         <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D51" t="s">
         <v>748</v>
@@ -8415,7 +8409,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>108</v>
@@ -8442,7 +8436,7 @@
         <v>97</v>
       </c>
       <c r="C56" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D56" t="s">
         <v>689</v>
@@ -8517,7 +8511,7 @@
         <v>271</v>
       </c>
       <c r="S57" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="V57" t="s">
         <v>730</v>
@@ -8645,7 +8639,7 @@
         <v>112</v>
       </c>
       <c r="C60" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D60" t="s">
         <v>110</v>
@@ -8698,7 +8692,7 @@
         <v>350</v>
       </c>
       <c r="C61" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D61" t="s">
         <v>110</v>
@@ -8716,13 +8710,13 @@
         <v>265</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R61" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="S61" t="s">
         <v>25</v>
@@ -8731,7 +8725,7 @@
         <v>152</v>
       </c>
       <c r="W61" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="62" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8768,7 +8762,7 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="Q62" t="s">
         <v>750</v>
@@ -8881,7 +8875,7 @@
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
@@ -8918,13 +8912,13 @@
         <v>270</v>
       </c>
       <c r="S65" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="V65" t="s">
         <v>152</v>
       </c>
       <c r="W65" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
@@ -8939,7 +8933,7 @@
         <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E66">
         <v>1987</v>
@@ -8954,16 +8948,16 @@
         <v>270</v>
       </c>
       <c r="P66" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q66" t="s">
         <v>930</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>932</v>
       </c>
       <c r="R66" t="s">
         <v>726</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
@@ -8971,7 +8965,7 @@
         <v>152</v>
       </c>
       <c r="W66" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
@@ -8983,7 +8977,7 @@
         <v>114</v>
       </c>
       <c r="C67" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D67" t="s">
         <v>120</v>
@@ -9034,16 +9028,16 @@
         <v>2013</v>
       </c>
       <c r="L68" t="s">
-        <v>758</v>
+        <v>548</v>
       </c>
       <c r="M68" t="s">
         <v>271</v>
       </c>
       <c r="P68" s="4" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q68" t="s">
         <v>760</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>761</v>
       </c>
       <c r="R68" t="s">
         <v>670</v>
@@ -9052,10 +9046,10 @@
         <v>414</v>
       </c>
       <c r="V68" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W68" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
@@ -9085,10 +9079,10 @@
         <v>268</v>
       </c>
       <c r="Q69" t="s">
+        <v>763</v>
+      </c>
+      <c r="R69" t="s">
         <v>764</v>
-      </c>
-      <c r="R69" t="s">
-        <v>765</v>
       </c>
       <c r="S69" t="s">
         <v>25</v>
@@ -9097,7 +9091,7 @@
         <v>152</v>
       </c>
       <c r="W69" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
@@ -9109,7 +9103,7 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D70" t="s">
         <v>186</v>
@@ -9127,7 +9121,7 @@
         <v>675</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="Q70" t="s">
         <v>171</v>
@@ -9172,7 +9166,7 @@
         <v>698</v>
       </c>
       <c r="Q71" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R71" t="s">
         <v>710</v>
@@ -9181,10 +9175,10 @@
         <v>744</v>
       </c>
       <c r="V71" t="s">
+        <v>768</v>
+      </c>
+      <c r="W71" t="s">
         <v>769</v>
-      </c>
-      <c r="W71" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="72" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9199,7 +9193,7 @@
         <v>285</v>
       </c>
       <c r="D72" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E72">
         <v>1988</v>
@@ -9221,13 +9215,13 @@
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q72" t="s">
         <v>886</v>
       </c>
-      <c r="Q72" t="s">
+      <c r="R72" t="s">
         <v>887</v>
-      </c>
-      <c r="R72" t="s">
-        <v>888</v>
       </c>
       <c r="S72" t="s">
         <v>414</v>
@@ -9235,10 +9229,10 @@
       <c r="T72"/>
       <c r="U72"/>
       <c r="V72" t="s">
+        <v>888</v>
+      </c>
+      <c r="W72" t="s">
         <v>889</v>
-      </c>
-      <c r="W72" t="s">
-        <v>890</v>
       </c>
       <c r="X72"/>
       <c r="Y72"/>
@@ -9271,7 +9265,7 @@
         <v>271</v>
       </c>
       <c r="Q73" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R73" t="s">
         <v>726</v>
@@ -9283,7 +9277,7 @@
         <v>148</v>
       </c>
       <c r="W73" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="74" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9298,7 +9292,7 @@
         <v>351</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E74" s="2">
         <v>1993</v>
@@ -9316,10 +9310,10 @@
         <v>154</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="S74" s="2" t="s">
         <v>651</v>
@@ -9328,7 +9322,7 @@
         <v>152</v>
       </c>
       <c r="X74" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
@@ -9358,13 +9352,13 @@
         <v>271</v>
       </c>
       <c r="P75" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q75" t="s">
         <v>773</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>774</v>
-      </c>
-      <c r="R75" t="s">
-        <v>775</v>
       </c>
       <c r="S75" t="s">
         <v>414</v>
@@ -9373,7 +9367,7 @@
         <v>736</v>
       </c>
       <c r="W75" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
@@ -9385,7 +9379,7 @@
         <v>58</v>
       </c>
       <c r="C76" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D76" t="s">
         <v>198</v>
@@ -9447,7 +9441,7 @@
         <v>699</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -9455,15 +9449,15 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W77" s="4" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
@@ -9496,10 +9490,10 @@
         <v>679</v>
       </c>
       <c r="S78" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="W78" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
@@ -9542,7 +9536,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="V79" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
@@ -9606,7 +9600,7 @@
         <v>342</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E81" s="2">
         <v>1991</v>
@@ -9628,19 +9622,19 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="S81" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="V81" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
@@ -9671,16 +9665,16 @@
         <v>545</v>
       </c>
       <c r="M82" t="s">
+        <v>781</v>
+      </c>
+      <c r="P82" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="P82" s="4" t="s">
+      <c r="Q82" t="s">
         <v>783</v>
       </c>
-      <c r="Q82" t="s">
+      <c r="R82" t="s">
         <v>784</v>
-      </c>
-      <c r="R82" t="s">
-        <v>785</v>
       </c>
       <c r="S82" t="s">
         <v>651</v>
@@ -9689,7 +9683,7 @@
         <v>148</v>
       </c>
       <c r="W82" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="83" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -9726,13 +9720,13 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q83" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="R83" t="s">
         <v>791</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="R83" t="s">
-        <v>792</v>
       </c>
       <c r="S83" t="s">
         <v>651</v>
@@ -9743,7 +9737,7 @@
         <v>148</v>
       </c>
       <c r="W83" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="X83"/>
       <c r="Y83"/>
@@ -9761,7 +9755,7 @@
         <v>624</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="E84" s="2">
         <v>1995</v>
@@ -9776,22 +9770,22 @@
         <v>271</v>
       </c>
       <c r="P84" s="2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>1779</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>1780</v>
       </c>
-      <c r="Q84" s="2" t="s">
-        <v>1782</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>1783</v>
-      </c>
       <c r="S84" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="V84" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="X84" s="2" t="s">
         <v>1781</v>
-      </c>
-      <c r="X84" s="2" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.2">
@@ -9803,7 +9797,7 @@
         <v>237</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>236</v>
@@ -9823,7 +9817,7 @@
         <v>550</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -9873,13 +9867,13 @@
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q86" t="s">
         <v>812</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="R86" t="s">
         <v>813</v>
-      </c>
-      <c r="R86" t="s">
-        <v>814</v>
       </c>
       <c r="S86" t="s">
         <v>744</v>
@@ -9887,10 +9881,10 @@
       <c r="T86"/>
       <c r="U86"/>
       <c r="V86" t="s">
+        <v>814</v>
+      </c>
+      <c r="W86" t="s">
         <v>815</v>
-      </c>
-      <c r="W86" t="s">
-        <v>816</v>
       </c>
       <c r="X86"/>
       <c r="Y86"/>
@@ -9905,10 +9899,10 @@
         <v>18</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E87" s="2">
         <v>1989</v>
@@ -9930,7 +9924,7 @@
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
@@ -9972,18 +9966,18 @@
         <v>720</v>
       </c>
       <c r="M88" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q88" t="s">
         <v>824</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>825</v>
-      </c>
-      <c r="R88" t="s">
-        <v>826</v>
       </c>
       <c r="S88" t="s">
         <v>163</v>
@@ -9994,7 +9988,7 @@
         <v>671</v>
       </c>
       <c r="W88" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="X88"/>
       <c r="Y88"/>
@@ -10040,7 +10034,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="V89" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
@@ -10071,22 +10065,22 @@
         <v>712</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q90" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="R90" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="S90" s="2" t="s">
         <v>744</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="X90" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="91" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -10123,13 +10117,13 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q91" t="s">
         <v>828</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="R91" t="s">
         <v>829</v>
-      </c>
-      <c r="R91" t="s">
-        <v>830</v>
       </c>
       <c r="S91" t="s">
         <v>414</v>
@@ -10140,7 +10134,7 @@
         <v>189</v>
       </c>
       <c r="W91" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="X91"/>
       <c r="Y91"/>
@@ -10152,7 +10146,7 @@
         <v>Bernadette Devine</v>
       </c>
       <c r="B92" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C92" t="s">
         <v>246</v>
@@ -10173,10 +10167,10 @@
         <v>268</v>
       </c>
       <c r="Q92" t="s">
+        <v>832</v>
+      </c>
+      <c r="R92" t="s">
         <v>833</v>
-      </c>
-      <c r="R92" t="s">
-        <v>834</v>
       </c>
       <c r="S92" s="4" t="s">
         <v>163</v>
@@ -10184,10 +10178,10 @@
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
       <c r="V92" t="s">
+        <v>834</v>
+      </c>
+      <c r="W92" t="s">
         <v>835</v>
-      </c>
-      <c r="W92" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
@@ -10214,10 +10208,10 @@
         <v>547</v>
       </c>
       <c r="M93" t="s">
+        <v>836</v>
+      </c>
+      <c r="W93" t="s">
         <v>837</v>
-      </c>
-      <c r="W93" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
@@ -10229,7 +10223,7 @@
         <v>66</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>248</v>
@@ -10249,21 +10243,21 @@
         <v>550</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="Q94" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="Q94" s="2" t="s">
+      <c r="R94" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="R94" s="2" t="s">
-        <v>902</v>
-      </c>
       <c r="S94" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
@@ -10302,7 +10296,7 @@
         <v>268</v>
       </c>
       <c r="Q95" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="R95" t="s">
         <v>219</v>
@@ -10314,7 +10308,7 @@
         <v>148</v>
       </c>
       <c r="W95" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
@@ -10341,7 +10335,7 @@
         <v>705</v>
       </c>
       <c r="M96" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P96" s="4" t="s">
         <v>707</v>
@@ -10350,7 +10344,7 @@
         <v>707</v>
       </c>
       <c r="R96" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="S96" t="s">
         <v>163</v>
@@ -10359,7 +10353,7 @@
         <v>152</v>
       </c>
       <c r="W96" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
@@ -10374,7 +10368,7 @@
         <v>575</v>
       </c>
       <c r="D97" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E97">
         <v>2009</v>
@@ -10386,19 +10380,19 @@
         <v>621</v>
       </c>
       <c r="M97" t="s">
+        <v>1674</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="Q97" s="4" t="s">
         <v>1677</v>
       </c>
-      <c r="P97" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="Q97" s="4" t="s">
-        <v>1680</v>
-      </c>
       <c r="R97" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="S97" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
@@ -10406,7 +10400,7 @@
         <v>152</v>
       </c>
       <c r="W97" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
@@ -10436,10 +10430,10 @@
         <v>265</v>
       </c>
       <c r="Q98" t="s">
+        <v>842</v>
+      </c>
+      <c r="R98" t="s">
         <v>843</v>
-      </c>
-      <c r="R98" t="s">
-        <v>844</v>
       </c>
       <c r="S98" t="s">
         <v>25</v>
@@ -10448,7 +10442,7 @@
         <v>148</v>
       </c>
       <c r="W98" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
@@ -10478,22 +10472,22 @@
         <v>270</v>
       </c>
       <c r="P99" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q99" t="s">
         <v>846</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>847</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>848</v>
-      </c>
-      <c r="S99" t="s">
-        <v>849</v>
       </c>
       <c r="V99" t="s">
         <v>736</v>
       </c>
       <c r="W99" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
@@ -10525,7 +10519,7 @@
         <v>547</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -10550,7 +10544,7 @@
         <v>51</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>191</v>
@@ -10580,7 +10574,7 @@
         <v>308</v>
       </c>
       <c r="D102" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E102">
         <v>1990</v>
@@ -10597,29 +10591,29 @@
         <v>712</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="Q102" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="R102" t="s">
         <v>223</v>
       </c>
       <c r="S102" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="T102"/>
       <c r="U102"/>
       <c r="V102" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W102" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="X102"/>
       <c r="Y102"/>
@@ -10637,7 +10631,7 @@
         <v>312</v>
       </c>
       <c r="D103" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E103">
         <v>1979</v>
@@ -10659,24 +10653,24 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>947</v>
+      </c>
+      <c r="R103" t="s">
         <v>948</v>
       </c>
-      <c r="Q103" t="s">
-        <v>949</v>
-      </c>
-      <c r="R103" t="s">
+      <c r="S103" t="s">
         <v>950</v>
-      </c>
-      <c r="S103" t="s">
-        <v>952</v>
       </c>
       <c r="T103"/>
       <c r="U103"/>
       <c r="V103" t="s">
+        <v>949</v>
+      </c>
+      <c r="W103" t="s">
         <v>951</v>
-      </c>
-      <c r="W103" t="s">
-        <v>953</v>
       </c>
       <c r="X103"/>
       <c r="Y103"/>
@@ -10711,29 +10705,29 @@
         <v>720</v>
       </c>
       <c r="M104" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q104" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="R104" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="Q104" s="4" t="s">
-        <v>1108</v>
-      </c>
-      <c r="R104" s="4" t="s">
-        <v>1114</v>
-      </c>
       <c r="S104" s="4" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
       <c r="V104" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="W104" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="X104"/>
       <c r="Y104"/>
@@ -10796,7 +10790,7 @@
         <v>571</v>
       </c>
       <c r="D106" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="E106">
         <v>1979</v>
@@ -10811,13 +10805,13 @@
         <v>270</v>
       </c>
       <c r="Q106" s="4" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="S106" s="4" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
@@ -10825,7 +10819,7 @@
         <v>189</v>
       </c>
       <c r="W106" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.2">
@@ -10857,30 +10851,30 @@
         <v>712</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="Q107" s="2" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="R107" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="S107" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="V107" s="2" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="W107" s="2"/>
       <c r="X107" s="2" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
@@ -10911,33 +10905,33 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="Q108" s="2" t="s">
         <v>892</v>
       </c>
-      <c r="Q108" s="2" t="s">
+      <c r="R108" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="R108" s="2" t="s">
+      <c r="S108" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="S108" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="V108" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="W108" s="2"/>
       <c r="X108" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
@@ -10976,7 +10970,7 @@
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
@@ -11024,13 +11018,13 @@
       <c r="Q110"/>
       <c r="R110"/>
       <c r="S110" s="4" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
       <c r="V110"/>
       <c r="W110" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="X110"/>
       <c r="Y110"/>
@@ -11070,16 +11064,16 @@
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111" s="4" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="Q111" t="s">
+        <v>909</v>
+      </c>
+      <c r="R111" t="s">
         <v>910</v>
       </c>
-      <c r="R111" t="s">
+      <c r="S111" t="s">
         <v>911</v>
-      </c>
-      <c r="S111" t="s">
-        <v>912</v>
       </c>
       <c r="T111"/>
       <c r="U111"/>
@@ -11087,7 +11081,7 @@
         <v>152</v>
       </c>
       <c r="W111" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="X111"/>
       <c r="Y111"/>
@@ -11127,16 +11121,16 @@
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q112" t="s">
         <v>914</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>915</v>
       </c>
-      <c r="R112" t="s">
-        <v>916</v>
-      </c>
       <c r="S112" s="4" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
@@ -11144,7 +11138,7 @@
         <v>148</v>
       </c>
       <c r="W112" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="X112"/>
       <c r="Y112"/>
@@ -11179,19 +11173,19 @@
         <v>621</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
       <c r="Q113" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="R113" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="R113" s="7" t="s">
+      <c r="S113" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="S113" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
@@ -11215,7 +11209,7 @@
         <v>361</v>
       </c>
       <c r="D114" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E114">
         <v>2007</v>
@@ -11230,19 +11224,19 @@
         <v>268</v>
       </c>
       <c r="Q114" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="R114" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S114" t="s">
         <v>1076</v>
-      </c>
-      <c r="R114" t="s">
-        <v>1077</v>
-      </c>
-      <c r="S114" t="s">
-        <v>1078</v>
       </c>
       <c r="V114" s="4" t="s">
         <v>152</v>
       </c>
       <c r="W114" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.2">
@@ -11271,7 +11265,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
       <c r="L115" s="2" t="s">
-        <v>924</v>
+        <v>1817</v>
       </c>
       <c r="M115" s="2" t="s">
         <v>268</v>
@@ -11317,10 +11311,10 @@
         <v>271</v>
       </c>
       <c r="Q116" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="R116" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="S116" t="s">
         <v>25</v>
@@ -11329,7 +11323,7 @@
         <v>148</v>
       </c>
       <c r="W116" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
@@ -11412,10 +11406,10 @@
       <c r="O118" s="4"/>
       <c r="P118" s="4"/>
       <c r="Q118" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="R118" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="R118" s="4" t="s">
-        <v>789</v>
       </c>
       <c r="S118" s="4" t="s">
         <v>25</v>
@@ -11426,7 +11420,7 @@
         <v>148</v>
       </c>
       <c r="W118" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
@@ -11458,7 +11452,7 @@
       <c r="J119"/>
       <c r="K119"/>
       <c r="L119" t="s">
-        <v>924</v>
+        <v>1817</v>
       </c>
       <c r="M119" t="s">
         <v>268</v>
@@ -11469,13 +11463,13 @@
       <c r="Q119"/>
       <c r="R119"/>
       <c r="S119" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T119"/>
       <c r="U119"/>
       <c r="V119"/>
       <c r="W119" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="X119"/>
       <c r="Y119"/>
@@ -11515,13 +11509,13 @@
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120" s="4" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="S120" s="4" t="s">
         <v>142</v>
@@ -11529,10 +11523,10 @@
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
       <c r="V120" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W120" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="X120"/>
       <c r="Y120"/>
@@ -11544,13 +11538,13 @@
         <v>Blair Fosburgh</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>616</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="E121" s="4">
         <v>1986</v>
@@ -11567,21 +11561,21 @@
         <v>546</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="4" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="Q121" s="4" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="R121" s="4" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="S121" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
@@ -11589,7 +11583,7 @@
         <v>152</v>
       </c>
       <c r="W121" s="4" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="X121" s="4"/>
       <c r="Y121" s="4"/>
@@ -11631,10 +11625,10 @@
         <v>379</v>
       </c>
       <c r="C123" t="s">
+        <v>878</v>
+      </c>
+      <c r="D123" t="s">
         <v>879</v>
-      </c>
-      <c r="D123" t="s">
-        <v>880</v>
       </c>
       <c r="E123">
         <v>1988</v>
@@ -11656,16 +11650,16 @@
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q123" t="s">
         <v>881</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>882</v>
       </c>
       <c r="R123" t="s">
         <v>223</v>
       </c>
       <c r="S123" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="T123"/>
       <c r="U123"/>
@@ -11673,7 +11667,7 @@
         <v>189</v>
       </c>
       <c r="W123" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="X123"/>
       <c r="Y123"/>
@@ -11688,10 +11682,10 @@
         <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D124" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E124">
         <v>1999</v>
@@ -11706,7 +11700,7 @@
         <v>271</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q124" t="s">
         <v>26</v>
@@ -11736,7 +11730,7 @@
         <v>53</v>
       </c>
       <c r="D125" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E125">
         <v>1985</v>
@@ -11754,10 +11748,10 @@
         <v>665</v>
       </c>
       <c r="Q125" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="R125" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="S125" t="s">
         <v>25</v>
@@ -11766,7 +11760,7 @@
         <v>152</v>
       </c>
       <c r="W125" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="126" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11781,7 +11775,7 @@
         <v>503</v>
       </c>
       <c r="D126" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="E126">
         <v>1990</v>
@@ -11803,16 +11797,16 @@
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Q126" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="R126" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="S126" s="4" t="s">
         <v>1504</v>
-      </c>
-      <c r="Q126" s="4" t="s">
-        <v>1505</v>
-      </c>
-      <c r="R126" s="4" t="s">
-        <v>1506</v>
-      </c>
-      <c r="S126" s="4" t="s">
-        <v>1507</v>
       </c>
       <c r="T126" s="4"/>
       <c r="U126" s="4"/>
@@ -11820,7 +11814,7 @@
         <v>152</v>
       </c>
       <c r="W126" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="X126"/>
       <c r="Y126"/>
@@ -11832,7 +11826,7 @@
         <v>Lizzy Frisbie</v>
       </c>
       <c r="B127" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C127" t="s">
         <v>311</v>
@@ -11853,7 +11847,7 @@
         <v>273</v>
       </c>
       <c r="R127" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="S127" t="s">
         <v>25</v>
@@ -11862,7 +11856,7 @@
         <v>152</v>
       </c>
       <c r="W127" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="128" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11877,7 +11871,7 @@
         <v>408</v>
       </c>
       <c r="D128" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E128">
         <v>2004</v>
@@ -11900,10 +11894,10 @@
       <c r="O128"/>
       <c r="P128" s="4"/>
       <c r="Q128" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="R128" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="S128" t="s">
         <v>25</v>
@@ -11911,10 +11905,10 @@
       <c r="T128"/>
       <c r="U128"/>
       <c r="V128" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="W128" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="X128"/>
       <c r="Y128"/>
@@ -11926,13 +11920,13 @@
         <v>Kim Gailun</v>
       </c>
       <c r="B129" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>617</v>
       </c>
       <c r="D129" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="E129">
         <v>2000</v>
@@ -11947,10 +11941,10 @@
         <v>271</v>
       </c>
       <c r="Q129" s="4" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="R129" s="4" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="S129" s="4" t="s">
         <v>25</v>
@@ -11961,7 +11955,7 @@
         <v>152</v>
       </c>
       <c r="W129" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="130" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11998,10 +11992,10 @@
       <c r="N130"/>
       <c r="O130"/>
       <c r="P130" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="Q130" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="R130" t="s">
         <v>670</v>
@@ -12015,7 +12009,7 @@
         <v>152</v>
       </c>
       <c r="W130" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="X130"/>
       <c r="Y130"/>
@@ -12033,7 +12027,7 @@
         <v>603</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="E131" s="2">
         <v>1991</v>
@@ -12050,7 +12044,7 @@
         <v>712</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -12090,7 +12084,7 @@
         <v>546</v>
       </c>
       <c r="M132" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="N132" t="s">
         <v>267</v>
@@ -12099,7 +12093,7 @@
         <v>152</v>
       </c>
       <c r="W132" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
@@ -12126,16 +12120,16 @@
         <v>546</v>
       </c>
       <c r="M133" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P133" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>958</v>
+      </c>
+      <c r="R133" t="s">
         <v>959</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>960</v>
-      </c>
-      <c r="R133" t="s">
-        <v>961</v>
       </c>
       <c r="S133" t="s">
         <v>414</v>
@@ -12144,7 +12138,7 @@
         <v>148</v>
       </c>
       <c r="W133" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
@@ -12153,7 +12147,7 @@
         <v>Olly Gill</v>
       </c>
       <c r="B134" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C134" t="s">
         <v>319</v>
@@ -12174,13 +12168,13 @@
         <v>270</v>
       </c>
       <c r="S134" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="V134" t="s">
         <v>152</v>
       </c>
       <c r="W134" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="135" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12218,21 +12212,21 @@
       <c r="O135"/>
       <c r="P135" s="4"/>
       <c r="Q135" t="s">
+        <v>963</v>
+      </c>
+      <c r="R135" t="s">
+        <v>964</v>
+      </c>
+      <c r="S135" t="s">
         <v>965</v>
-      </c>
-      <c r="R135" t="s">
-        <v>966</v>
-      </c>
-      <c r="S135" t="s">
-        <v>967</v>
       </c>
       <c r="T135"/>
       <c r="U135"/>
       <c r="V135" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="W135" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="X135"/>
       <c r="Y135"/>
@@ -12265,22 +12259,22 @@
         <v>265</v>
       </c>
       <c r="P136" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>969</v>
+      </c>
+      <c r="R136" t="s">
         <v>970</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>971</v>
-      </c>
-      <c r="R136" t="s">
-        <v>972</v>
       </c>
       <c r="S136" t="s">
         <v>163</v>
       </c>
       <c r="V136" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="W136" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
@@ -12322,7 +12316,7 @@
         <v>148</v>
       </c>
       <c r="W137" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
@@ -12473,7 +12467,7 @@
         <v>698</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="142" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12513,7 +12507,7 @@
       <c r="Q142" s="4"/>
       <c r="R142" s="4"/>
       <c r="S142" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T142" s="4"/>
       <c r="U142" s="4"/>
@@ -12521,7 +12515,7 @@
         <v>148</v>
       </c>
       <c r="W142" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="X142" s="4"/>
       <c r="Y142" s="4"/>
@@ -12551,7 +12545,7 @@
         <v>548</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="144" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12560,7 +12554,7 @@
         <v>Leelee Groome</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>335</v>
@@ -12588,16 +12582,16 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="S144" s="4" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="T144" s="4"/>
       <c r="U144" s="4"/>
@@ -12605,7 +12599,7 @@
         <v>148</v>
       </c>
       <c r="W144" s="4" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="X144" s="4"/>
       <c r="Y144" s="4"/>
@@ -12638,22 +12632,22 @@
         <v>675</v>
       </c>
       <c r="P145" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="Q145" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="R145" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="Q145" s="4" t="s">
+      <c r="S145" s="4" t="s">
         <v>989</v>
-      </c>
-      <c r="R145" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="S145" s="4" t="s">
-        <v>991</v>
       </c>
       <c r="V145" s="4" t="s">
         <v>160</v>
       </c>
       <c r="W145" s="4" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="146" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -12691,10 +12685,10 @@
       <c r="O146" s="4"/>
       <c r="P146" s="4"/>
       <c r="Q146" s="4" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="R146" s="4" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="S146" s="4" t="s">
         <v>25</v>
@@ -12705,7 +12699,7 @@
         <v>148</v>
       </c>
       <c r="W146" s="4" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="X146" s="4"/>
       <c r="Y146" s="4"/>
@@ -12717,7 +12711,7 @@
         <v>Liv Gundrum</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>339</v>
@@ -12740,16 +12734,16 @@
         <v>548</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
       <c r="Q147" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="R147" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="S147" s="2" t="s">
         <v>163</v>
@@ -12757,7 +12751,7 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="V147" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
@@ -12798,21 +12792,21 @@
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R148" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="Q148" s="2" t="s">
+      <c r="S148" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="R148" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="S148" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="V148" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
@@ -12856,13 +12850,13 @@
         <v>665</v>
       </c>
       <c r="Q149" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="R149" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="S149" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="T149"/>
       <c r="U149"/>
@@ -12870,7 +12864,7 @@
         <v>152</v>
       </c>
       <c r="W149" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="X149"/>
       <c r="Y149"/>
@@ -12910,16 +12904,16 @@
       <c r="N150"/>
       <c r="O150"/>
       <c r="P150" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="Q150" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="R150" t="s">
         <v>215</v>
       </c>
       <c r="S150" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="T150"/>
       <c r="U150"/>
@@ -12927,7 +12921,7 @@
         <v>156</v>
       </c>
       <c r="W150" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="X150"/>
       <c r="Y150"/>
@@ -12942,10 +12936,10 @@
         <v>58</v>
       </c>
       <c r="C151" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D151" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E151">
         <v>1995</v>
@@ -12970,13 +12964,13 @@
         <v>707</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="R151" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="S151" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="T151"/>
       <c r="U151"/>
@@ -12984,7 +12978,7 @@
         <v>148</v>
       </c>
       <c r="W151" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="X151"/>
       <c r="Y151"/>
@@ -13019,15 +13013,15 @@
         <v>548</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N152"/>
       <c r="O152"/>
       <c r="P152" s="4" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="R152" t="s">
         <v>710</v>
@@ -13038,10 +13032,10 @@
       <c r="T152"/>
       <c r="U152"/>
       <c r="V152" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="W152" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="X152"/>
       <c r="Y152"/>
@@ -13081,13 +13075,13 @@
       <c r="N153"/>
       <c r="O153"/>
       <c r="P153" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q153" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R153" t="s">
         <v>1046</v>
-      </c>
-      <c r="Q153" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="R153" t="s">
-        <v>1048</v>
       </c>
       <c r="S153" t="s">
         <v>414</v>
@@ -13098,7 +13092,7 @@
         <v>220</v>
       </c>
       <c r="W153" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="X153"/>
       <c r="Y153"/>
@@ -13110,7 +13104,7 @@
         <v>Jenn Hatfield</v>
       </c>
       <c r="B154" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C154" t="s">
         <v>356</v>
@@ -13131,7 +13125,7 @@
         <v>268</v>
       </c>
       <c r="Q154" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="R154" t="s">
         <v>670</v>
@@ -13143,7 +13137,7 @@
         <v>736</v>
       </c>
       <c r="W154" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.2">
@@ -13158,7 +13152,7 @@
         <v>380</v>
       </c>
       <c r="D155" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E155">
         <v>1977</v>
@@ -13170,27 +13164,27 @@
         <v>712</v>
       </c>
       <c r="M155" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="Q155" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="R155" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="S155" s="4" t="s">
         <v>1180</v>
-      </c>
-      <c r="R155" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="S155" s="4" t="s">
-        <v>1182</v>
       </c>
       <c r="T155" s="4"/>
       <c r="U155" s="4"/>
       <c r="V155" s="4" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="W155" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.2">
@@ -13220,22 +13214,22 @@
         <v>271</v>
       </c>
       <c r="P156" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q156" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="R156" t="s">
         <v>1059</v>
       </c>
-      <c r="Q156" s="4" t="s">
+      <c r="S156" t="s">
+        <v>907</v>
+      </c>
+      <c r="V156" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="R156" t="s">
+      <c r="W156" t="s">
         <v>1061</v>
-      </c>
-      <c r="S156" t="s">
-        <v>908</v>
-      </c>
-      <c r="V156" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="W156" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.2">
@@ -13265,19 +13259,19 @@
         <v>268</v>
       </c>
       <c r="Q157" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="R157" t="s">
         <v>710</v>
       </c>
       <c r="S157" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="V157" s="4" t="s">
         <v>692</v>
       </c>
       <c r="W157" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.2">
@@ -13307,19 +13301,19 @@
         <v>268</v>
       </c>
       <c r="Q158" s="4" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="R158" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="S158" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="V158" s="4" t="s">
         <v>148</v>
       </c>
       <c r="W158" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.2">
@@ -13334,7 +13328,7 @@
         <v>334</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E159" s="4">
         <v>2001</v>
@@ -13356,13 +13350,13 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
       <c r="P159" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q159" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="R159" s="4" t="s">
         <v>979</v>
-      </c>
-      <c r="Q159" s="4" t="s">
-        <v>980</v>
-      </c>
-      <c r="R159" s="4" t="s">
-        <v>981</v>
       </c>
       <c r="S159" s="4" t="s">
         <v>163</v>
@@ -13373,7 +13367,7 @@
         <v>152</v>
       </c>
       <c r="W159" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="X159" s="4"/>
       <c r="Y159" s="4"/>
@@ -13385,7 +13379,7 @@
         <v>Jen Holleran</v>
       </c>
       <c r="B160" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C160" t="s">
         <v>364</v>
@@ -13406,16 +13400,16 @@
         <v>268</v>
       </c>
       <c r="P160" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="Q160" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="R160" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="Q160" s="4" t="s">
+      <c r="S160" s="4" t="s">
         <v>1128</v>
-      </c>
-      <c r="R160" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="S160" s="4" t="s">
-        <v>1130</v>
       </c>
       <c r="T160" s="4"/>
       <c r="U160" s="4"/>
@@ -13423,7 +13417,7 @@
         <v>152</v>
       </c>
       <c r="W160" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="161" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -13459,16 +13453,16 @@
       </c>
       <c r="N161"/>
       <c r="O161" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="Q161" s="4" t="s">
         <v>139</v>
       </c>
       <c r="R161" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="S161" s="4" t="s">
         <v>142</v>
@@ -13476,10 +13470,10 @@
       <c r="T161" s="4"/>
       <c r="U161" s="4"/>
       <c r="V161" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="W161" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="X161"/>
       <c r="Y161"/>
@@ -13497,7 +13491,7 @@
         <v>442</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E162" s="4">
         <v>1997</v>
@@ -13514,28 +13508,28 @@
         <v>621</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
       <c r="P162" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="Q162" s="4"/>
       <c r="R162" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="S162" s="4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="T162" s="4"/>
       <c r="U162" s="4"/>
       <c r="V162" s="4" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="W162" s="4"/>
       <c r="X162" s="4" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
@@ -13567,15 +13561,15 @@
         <v>268</v>
       </c>
       <c r="S163" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T163" s="4"/>
       <c r="U163" s="4"/>
       <c r="V163" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="W163" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.2">
@@ -13602,19 +13596,19 @@
         <v>699</v>
       </c>
       <c r="M164" t="s">
+        <v>1157</v>
+      </c>
+      <c r="P164" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="Q164" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="P164" s="4" t="s">
+      <c r="R164" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="Q164" s="4" t="s">
+      <c r="S164" s="4" t="s">
         <v>1161</v>
-      </c>
-      <c r="R164" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="S164" s="4" t="s">
-        <v>1163</v>
       </c>
       <c r="T164" s="4"/>
       <c r="U164" s="4"/>
@@ -13622,7 +13616,7 @@
         <v>20</v>
       </c>
       <c r="W164" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.2">
@@ -13652,13 +13646,13 @@
         <v>268</v>
       </c>
       <c r="Q165" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="R165" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="S165" s="4" t="s">
         <v>1165</v>
-      </c>
-      <c r="R165" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="S165" s="4" t="s">
-        <v>1167</v>
       </c>
       <c r="T165" s="4"/>
       <c r="U165" s="4"/>
@@ -13666,7 +13660,7 @@
         <v>152</v>
       </c>
       <c r="W165" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.2">
@@ -13726,7 +13720,7 @@
         <v>262</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E167" s="2">
         <v>1977</v>
@@ -13768,10 +13762,10 @@
         <v>109</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="E168" s="2">
         <v>1986</v>
@@ -13788,7 +13782,7 @@
         <v>621</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -13834,7 +13828,7 @@
         <v>29</v>
       </c>
       <c r="R169" s="4" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="S169" s="4" t="s">
         <v>25</v>
@@ -13845,7 +13839,7 @@
         <v>148</v>
       </c>
       <c r="W169" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.2">
@@ -13875,10 +13869,10 @@
         <v>679</v>
       </c>
       <c r="Q170" s="4" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="R170" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="S170" s="4" t="s">
         <v>142</v>
@@ -13889,7 +13883,7 @@
         <v>148</v>
       </c>
       <c r="W170" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.2">
@@ -13922,7 +13916,7 @@
         <v>270</v>
       </c>
       <c r="S171" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T171" s="4"/>
       <c r="U171" s="4"/>
@@ -13930,7 +13924,7 @@
         <v>152</v>
       </c>
       <c r="W171" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.2">
@@ -13954,22 +13948,22 @@
         <v>1979</v>
       </c>
       <c r="L172" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M172" t="s">
         <v>274</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="Q172" s="4" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="R172" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="S172" s="4" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="T172" s="4"/>
       <c r="U172" s="4"/>
@@ -13977,7 +13971,7 @@
         <v>736</v>
       </c>
       <c r="W172" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.2">
@@ -14009,16 +14003,16 @@
         <v>549</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
       <c r="Q173" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="R173" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="S173" s="2" t="s">
         <v>163</v>
@@ -14026,7 +14020,7 @@
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
       <c r="V173" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
@@ -14057,27 +14051,27 @@
         <v>621</v>
       </c>
       <c r="M174" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="Q174" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="R174" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="S174" s="4" t="s">
         <v>1188</v>
-      </c>
-      <c r="R174" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="S174" s="4" t="s">
-        <v>1190</v>
       </c>
       <c r="T174" s="4"/>
       <c r="U174" s="4"/>
       <c r="V174" s="4" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="W174" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
@@ -14104,27 +14098,27 @@
         <v>705</v>
       </c>
       <c r="M175" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="Q175" s="4" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="R175" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="S175" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T175" s="4"/>
       <c r="U175" s="4"/>
       <c r="V175" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="X175" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.2">
@@ -14154,21 +14148,21 @@
         <v>675</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="R176" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="S176" s="4" t="s">
         <v>1197</v>
-      </c>
-      <c r="S176" s="4" t="s">
-        <v>1199</v>
       </c>
       <c r="T176" s="4"/>
       <c r="U176" s="4"/>
       <c r="V176" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="W176" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.2">
@@ -14272,7 +14266,7 @@
         <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D179" t="s">
         <v>184</v>
@@ -14290,7 +14284,7 @@
         <v>271</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Q179" t="s">
         <v>177</v>
@@ -14317,7 +14311,7 @@
         <v>119</v>
       </c>
       <c r="C180" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D180" t="s">
         <v>183</v>
@@ -14371,7 +14365,7 @@
         <v>Francie Karlen</v>
       </c>
       <c r="B181" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>614</v>
@@ -14392,13 +14386,13 @@
         <v>271</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q181" s="4" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="R181" s="4" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="S181" s="4" t="s">
         <v>753</v>
@@ -14409,7 +14403,7 @@
         <v>152</v>
       </c>
       <c r="W181" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.2">
@@ -14449,7 +14443,7 @@
       <c r="Q182" s="8"/>
       <c r="R182" s="8"/>
       <c r="S182" s="8" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="T182" s="8"/>
       <c r="U182" s="8"/>
@@ -14488,15 +14482,15 @@
         <v>271</v>
       </c>
       <c r="S183" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T183" s="4"/>
       <c r="U183" s="4"/>
       <c r="V183" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="W183" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.2">
@@ -14526,16 +14520,16 @@
         <v>271</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="Q184" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R184" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="S184" s="4" t="s">
         <v>1215</v>
-      </c>
-      <c r="R184" s="4" t="s">
-        <v>1216</v>
-      </c>
-      <c r="S184" s="4" t="s">
-        <v>1217</v>
       </c>
       <c r="T184" s="4"/>
       <c r="U184" s="4"/>
@@ -14543,7 +14537,7 @@
         <v>148</v>
       </c>
       <c r="W184" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.2">
@@ -14573,13 +14567,13 @@
         <v>270</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="Q185" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="R185" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="S185" s="4" t="s">
         <v>163</v>
@@ -14587,10 +14581,10 @@
       <c r="T185" s="4"/>
       <c r="U185" s="4"/>
       <c r="V185" s="4" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="W185" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="186" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -14605,7 +14599,7 @@
         <v>416</v>
       </c>
       <c r="D186" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E186">
         <v>2001</v>
@@ -14622,29 +14616,29 @@
         <v>549</v>
       </c>
       <c r="M186" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="N186"/>
       <c r="O186"/>
       <c r="P186" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="Q186" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="R186" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="Q186" s="4" t="s">
+      <c r="S186" s="4" t="s">
         <v>1252</v>
-      </c>
-      <c r="R186" s="4" t="s">
-        <v>1253</v>
-      </c>
-      <c r="S186" s="4" t="s">
-        <v>1254</v>
       </c>
       <c r="T186" s="4"/>
       <c r="U186" s="4"/>
       <c r="V186" s="4" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="W186" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="X186"/>
       <c r="Y186"/>
@@ -14662,7 +14656,7 @@
         <v>494</v>
       </c>
       <c r="D187" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="E187">
         <v>2010</v>
@@ -14677,16 +14671,16 @@
         <v>265</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="Q187" s="4" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="R187" s="4" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="S187" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T187" s="4"/>
       <c r="U187" s="4"/>
@@ -14694,7 +14688,7 @@
         <v>148</v>
       </c>
       <c r="W187" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.2">
@@ -14721,7 +14715,7 @@
         <v>550</v>
       </c>
       <c r="M188" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="N188" t="s">
         <v>271</v>
@@ -14769,19 +14763,19 @@
         <v>265</v>
       </c>
       <c r="Q189" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="R189" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="S189" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="V189" t="s">
         <v>148</v>
       </c>
       <c r="W189" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.2">
@@ -14790,7 +14784,7 @@
         <v>Kim Landry</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>406</v>
@@ -14818,7 +14812,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q190" s="2"/>
       <c r="R190" s="2"/>
@@ -14843,7 +14837,7 @@
         <v>39</v>
       </c>
       <c r="D191" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E191">
         <v>2007</v>
@@ -14898,7 +14892,7 @@
         <v>367</v>
       </c>
       <c r="D192" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E192">
         <v>1997</v>
@@ -14916,10 +14910,10 @@
         <v>214</v>
       </c>
       <c r="Q192" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R192" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="S192" s="4" t="s">
         <v>25</v>
@@ -14927,10 +14921,10 @@
       <c r="T192" s="4"/>
       <c r="U192" s="4"/>
       <c r="V192" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="W192" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="193" spans="1:26" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -15020,13 +15014,13 @@
         <v>665</v>
       </c>
       <c r="Q194" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R194" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="S194" s="4" t="s">
         <v>1246</v>
-      </c>
-      <c r="R194" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="S194" s="4" t="s">
-        <v>1248</v>
       </c>
       <c r="T194" s="4"/>
       <c r="U194" s="4"/>
@@ -15034,7 +15028,7 @@
         <v>189</v>
       </c>
       <c r="W194" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="195" spans="1:26" x14ac:dyDescent="0.2">
@@ -15049,7 +15043,7 @@
         <v>370</v>
       </c>
       <c r="D195" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E195">
         <v>2002</v>
@@ -15064,10 +15058,10 @@
         <v>268</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="Q195" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="R195" s="4" t="s">
         <v>212</v>
@@ -15078,10 +15072,10 @@
       <c r="T195" s="4"/>
       <c r="U195" s="4"/>
       <c r="V195" s="4" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="W195" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="196" spans="1:26" x14ac:dyDescent="0.2">
@@ -15090,7 +15084,7 @@
         <v>Jenn Leffew</v>
       </c>
       <c r="B196" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C196" t="s">
         <v>417</v>
@@ -15111,13 +15105,13 @@
         <v>271</v>
       </c>
       <c r="Q196" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="R196" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="S196" s="4" t="s">
         <v>1257</v>
-      </c>
-      <c r="R196" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="S196" s="4" t="s">
-        <v>1259</v>
       </c>
       <c r="T196" s="4"/>
       <c r="U196" s="4"/>
@@ -15125,7 +15119,7 @@
         <v>148</v>
       </c>
       <c r="W196" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="197" spans="1:26" x14ac:dyDescent="0.2">
@@ -15158,13 +15152,13 @@
         <v>665</v>
       </c>
       <c r="Q197" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="R197" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="S197" s="4" t="s">
         <v>1261</v>
-      </c>
-      <c r="R197" s="4" t="s">
-        <v>1262</v>
-      </c>
-      <c r="S197" s="4" t="s">
-        <v>1263</v>
       </c>
       <c r="T197" s="4"/>
       <c r="U197" s="4"/>
@@ -15172,7 +15166,7 @@
         <v>148</v>
       </c>
       <c r="W197" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="198" spans="1:26" x14ac:dyDescent="0.2">
@@ -15205,10 +15199,10 @@
         <v>654</v>
       </c>
       <c r="R198" s="4" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="S198" s="4" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="T198" s="4"/>
       <c r="U198" s="4"/>
@@ -15216,7 +15210,7 @@
         <v>148</v>
       </c>
       <c r="W198" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="199" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -15228,10 +15222,10 @@
         <v>65</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E199" s="2">
         <v>1999</v>
@@ -15243,7 +15237,7 @@
         <v>545</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="200" spans="1:26" x14ac:dyDescent="0.2">
@@ -15267,7 +15261,7 @@
         <v>2002</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M200" t="s">
         <v>266</v>
@@ -15276,10 +15270,10 @@
         <v>707</v>
       </c>
       <c r="Q200" s="4" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="R200" s="4" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="S200" s="4" t="s">
         <v>414</v>
@@ -15290,7 +15284,7 @@
         <v>148</v>
       </c>
       <c r="W200" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="201" spans="1:26" x14ac:dyDescent="0.2">
@@ -15314,30 +15308,30 @@
         <v>1993</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M201" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P201" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Q201" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="R201" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="Q201" s="4" t="s">
+      <c r="S201" s="4" t="s">
         <v>1269</v>
-      </c>
-      <c r="R201" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="S201" s="4" t="s">
-        <v>1271</v>
       </c>
       <c r="T201" s="4"/>
       <c r="U201" s="4"/>
       <c r="V201" s="4" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="W201" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="202" spans="1:26" x14ac:dyDescent="0.2">
@@ -15364,16 +15358,16 @@
         <v>546</v>
       </c>
       <c r="M202" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="P202" s="4" t="s">
         <v>214</v>
       </c>
       <c r="Q202" s="4" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="R202" s="4" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="S202" s="4" t="s">
         <v>25</v>
@@ -15384,7 +15378,7 @@
         <v>189</v>
       </c>
       <c r="W202" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="203" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -15399,7 +15393,7 @@
         <v>363</v>
       </c>
       <c r="D203" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E203">
         <v>2000</v>
@@ -15421,24 +15415,24 @@
       <c r="N203"/>
       <c r="O203"/>
       <c r="P203" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q203" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="R203" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="Q203" s="4" t="s">
-        <v>1122</v>
-      </c>
-      <c r="R203" s="4" t="s">
-        <v>1123</v>
-      </c>
       <c r="S203" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="T203" s="4"/>
       <c r="U203" s="4"/>
       <c r="V203" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="W203" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="X203"/>
       <c r="Y203"/>
@@ -15450,13 +15444,13 @@
         <v>Ali Lombardo</v>
       </c>
       <c r="B204" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C204" t="s">
         <v>454</v>
       </c>
       <c r="D204" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E204">
         <v>2009</v>
@@ -15471,10 +15465,10 @@
         <v>268</v>
       </c>
       <c r="Q204" s="4" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="R204" s="4" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="S204" s="4" t="s">
         <v>25</v>
@@ -15485,7 +15479,7 @@
         <v>148</v>
       </c>
       <c r="W204" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.2">
@@ -15497,7 +15491,7 @@
         <v>34</v>
       </c>
       <c r="C205" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D205" t="s">
         <v>141</v>
@@ -15559,21 +15553,21 @@
         <v>273</v>
       </c>
       <c r="Q206" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="R206" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="S206" s="4" t="s">
         <v>1286</v>
-      </c>
-      <c r="R206" s="4" t="s">
-        <v>1287</v>
-      </c>
-      <c r="S206" s="4" t="s">
-        <v>1288</v>
       </c>
       <c r="T206" s="4"/>
       <c r="U206" s="4"/>
       <c r="V206" s="4" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="W206" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="207" spans="1:26" x14ac:dyDescent="0.2">
@@ -15582,7 +15576,7 @@
         <v>Lily Lyman</v>
       </c>
       <c r="B207" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C207" t="s">
         <v>428</v>
@@ -15608,13 +15602,13 @@
         <v>214</v>
       </c>
       <c r="Q207" s="4" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="R207" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="S207" s="4" t="s">
         <v>1291</v>
-      </c>
-      <c r="S207" s="4" t="s">
-        <v>1293</v>
       </c>
       <c r="T207" s="4"/>
       <c r="U207" s="4"/>
@@ -15622,7 +15616,7 @@
         <v>152</v>
       </c>
       <c r="W207" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="208" spans="1:26" x14ac:dyDescent="0.2">
@@ -15652,13 +15646,13 @@
         <v>271</v>
       </c>
       <c r="Q208" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="R208" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="S208" s="4" t="s">
         <v>1296</v>
-      </c>
-      <c r="R208" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="S208" s="4" t="s">
-        <v>1298</v>
       </c>
       <c r="T208" s="4"/>
       <c r="U208" s="4"/>
@@ -15666,7 +15660,7 @@
         <v>671</v>
       </c>
       <c r="W208" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="209" spans="1:26" x14ac:dyDescent="0.2">
@@ -15675,7 +15669,7 @@
         <v>Tori Machado</v>
       </c>
       <c r="B209" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C209" t="s">
         <v>431</v>
@@ -15693,13 +15687,13 @@
         <v>550</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="Q209" s="4" t="s">
         <v>29</v>
       </c>
       <c r="R209" s="4" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="S209" s="4" t="s">
         <v>25</v>
@@ -15710,7 +15704,7 @@
         <v>156</v>
       </c>
       <c r="W209" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="210" spans="1:26" x14ac:dyDescent="0.2">
@@ -15740,24 +15734,24 @@
         <v>265</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="Q210" s="4" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="R210" s="4" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="S210" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="T210" s="4"/>
       <c r="U210" s="4"/>
       <c r="V210" s="4" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="W210" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="211" spans="1:26" x14ac:dyDescent="0.2">
@@ -15831,21 +15825,21 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
       <c r="L212" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
       <c r="Q212" s="4" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R212" s="4" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="S212" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T212" s="4"/>
       <c r="U212" s="4"/>
@@ -15853,7 +15847,7 @@
         <v>189</v>
       </c>
       <c r="W212" s="4" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="X212" s="4"/>
       <c r="Y212" s="4"/>
@@ -15896,10 +15890,10 @@
         <v>665</v>
       </c>
       <c r="Q213" s="4" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="R213" s="4" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="S213" s="4" t="s">
         <v>142</v>
@@ -15907,10 +15901,10 @@
       <c r="T213" s="4"/>
       <c r="U213" s="4"/>
       <c r="V213" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="W213" s="4" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="X213" s="4"/>
       <c r="Y213" s="4"/>
@@ -16006,7 +16000,7 @@
         <v>148</v>
       </c>
       <c r="W215" s="4" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="X215" s="4"/>
       <c r="Y215" s="4"/>
@@ -16018,7 +16012,7 @@
         <v>Jake Martin</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>444</v>
@@ -16046,13 +16040,13 @@
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
       <c r="P216" s="4" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="Q216" s="4" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="R216" s="4" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="S216" s="4" t="s">
         <v>163</v>
@@ -16060,10 +16054,10 @@
       <c r="T216" s="4"/>
       <c r="U216" s="4"/>
       <c r="V216" s="4" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="W216" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="X216" s="4"/>
       <c r="Y216" s="4"/>
@@ -16103,16 +16097,16 @@
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
       <c r="P217" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="Q217" s="4" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="R217" s="4" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="S217" s="4" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="T217" s="4"/>
       <c r="U217" s="4"/>
@@ -16120,7 +16114,7 @@
         <v>169</v>
       </c>
       <c r="W217" s="4" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="X217" s="4"/>
       <c r="Y217" s="4"/>
@@ -16138,7 +16132,7 @@
         <v>329</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E218" s="2">
         <v>2000</v>
@@ -16183,7 +16177,7 @@
         <v>52</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E219" s="2">
         <v>2000</v>
@@ -16224,7 +16218,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M220" s="2" t="s">
         <v>274</v>
@@ -16238,7 +16232,7 @@
       <c r="T220" s="2"/>
       <c r="U220" s="2"/>
       <c r="V220" s="2" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
@@ -16274,7 +16268,7 @@
         <v>699</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
@@ -16282,13 +16276,13 @@
         <v>665</v>
       </c>
       <c r="Q221" s="4" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="R221" s="4" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="S221" s="4" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="T221" s="4"/>
       <c r="U221" s="4"/>
@@ -16296,7 +16290,7 @@
         <v>148</v>
       </c>
       <c r="W221" s="4" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="X221" s="4"/>
       <c r="Y221" s="4"/>
@@ -16311,7 +16305,7 @@
         <v>114</v>
       </c>
       <c r="C222" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D222" t="s">
         <v>401</v>
@@ -16395,19 +16389,19 @@
       </c>
       <c r="O223"/>
       <c r="Q223" s="4" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="R223" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="S223" s="4" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="V223" s="4" t="s">
         <v>148</v>
       </c>
       <c r="W223" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="X223"/>
       <c r="Y223"/>
@@ -16422,7 +16416,7 @@
         <v>87</v>
       </c>
       <c r="C224" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D224" t="s">
         <v>663</v>
@@ -16480,7 +16474,7 @@
         <v>383</v>
       </c>
       <c r="D225" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E225">
         <v>2008</v>
@@ -16502,22 +16496,22 @@
       <c r="N225"/>
       <c r="O225"/>
       <c r="P225" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q225" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="R225" s="4" t="s">
         <v>1202</v>
       </c>
-      <c r="Q225" s="4" t="s">
-        <v>1203</v>
-      </c>
-      <c r="R225" s="4" t="s">
-        <v>1204</v>
-      </c>
       <c r="S225" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="V225" s="4" t="s">
         <v>148</v>
       </c>
       <c r="W225" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="X225"/>
       <c r="Y225"/>
@@ -16560,19 +16554,19 @@
         <v>673</v>
       </c>
       <c r="Q226" s="4" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="R226" s="4" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="S226" s="4" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="V226" s="4" t="s">
         <v>152</v>
       </c>
       <c r="W226" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="X226"/>
       <c r="Y226"/>
@@ -16607,27 +16601,27 @@
         <v>621</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="N227"/>
       <c r="O227"/>
       <c r="P227" s="4" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="Q227" s="4" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="R227" s="4" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="S227" s="4" t="s">
         <v>25</v>
       </c>
       <c r="V227" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="W227" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="X227"/>
       <c r="Y227"/>
@@ -16668,13 +16662,13 @@
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
       <c r="Q228" s="2" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="R228" s="2" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="S228" s="2" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="T228" s="2"/>
       <c r="U228" s="2"/>
@@ -16683,7 +16677,7 @@
       </c>
       <c r="W228" s="2"/>
       <c r="X228" s="2" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
@@ -16722,19 +16716,19 @@
       <c r="N229"/>
       <c r="O229"/>
       <c r="Q229" s="4" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="R229" s="4" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="S229" s="4" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="V229" s="4" t="s">
         <v>736</v>
       </c>
       <c r="W229" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="X229"/>
       <c r="Y229"/>
@@ -16749,10 +16743,10 @@
         <v>233</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E230" s="2">
         <v>1999</v>
@@ -16779,7 +16773,7 @@
         <v>318</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E231" s="2">
         <v>1990</v>
@@ -16801,7 +16795,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="Q231" s="2"/>
       <c r="R231" s="2"/>
@@ -16820,7 +16814,7 @@
         <v>Annie Meyjes</v>
       </c>
       <c r="B232" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C232" t="s">
         <v>462</v>
@@ -16840,7 +16834,7 @@
       <c r="J232"/>
       <c r="K232"/>
       <c r="L232" t="s">
-        <v>924</v>
+        <v>1817</v>
       </c>
       <c r="M232" s="4" t="s">
         <v>270</v>
@@ -16848,7 +16842,7 @@
       <c r="N232"/>
       <c r="O232"/>
       <c r="Q232" s="4" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="R232" s="4" t="s">
         <v>219</v>
@@ -16860,7 +16854,7 @@
         <v>671</v>
       </c>
       <c r="W232" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="X232"/>
       <c r="Y232"/>
@@ -16893,24 +16887,24 @@
         <v>698</v>
       </c>
       <c r="P233" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="Q233" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="R233" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="S233" s="4" t="s">
         <v>1404</v>
-      </c>
-      <c r="Q233" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="R233" s="4" t="s">
-        <v>1406</v>
-      </c>
-      <c r="S233" s="4" t="s">
-        <v>1407</v>
       </c>
       <c r="T233" s="4"/>
       <c r="U233" s="4"/>
       <c r="V233" s="4" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="W233" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="234" spans="1:26" x14ac:dyDescent="0.2">
@@ -16942,7 +16936,7 @@
         <v>712</v>
       </c>
       <c r="M234" s="10" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="N234" s="10"/>
       <c r="O234" s="10"/>
@@ -16957,7 +16951,7 @@
       <c r="X234" s="10"/>
       <c r="Y234" s="10"/>
       <c r="Z234" s="10" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="235" spans="1:26" x14ac:dyDescent="0.2">
@@ -16966,13 +16960,13 @@
         <v>Kate Molinsky</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>450</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E235" s="4">
         <v>1989</v>
@@ -16994,24 +16988,24 @@
       <c r="N235" s="4"/>
       <c r="O235" s="4"/>
       <c r="P235" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Q235" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="R235" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S235" s="4" t="s">
         <v>1365</v>
-      </c>
-      <c r="Q235" s="4" t="s">
-        <v>1366</v>
-      </c>
-      <c r="R235" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="S235" s="4" t="s">
-        <v>1368</v>
       </c>
       <c r="T235" s="4"/>
       <c r="U235" s="4"/>
       <c r="V235" s="4" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="W235" s="4" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="X235" s="4"/>
       <c r="Y235" s="4"/>
@@ -17096,16 +17090,16 @@
       <c r="N237"/>
       <c r="O237"/>
       <c r="P237" s="4" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="Q237" s="4" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="R237" s="4" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="S237" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T237" s="4"/>
       <c r="U237" s="4"/>
@@ -17113,7 +17107,7 @@
         <v>148</v>
       </c>
       <c r="W237" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="X237"/>
       <c r="Y237"/>
@@ -17146,19 +17140,19 @@
         <v>265</v>
       </c>
       <c r="Q238" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="R238" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="S238" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="V238" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="W238" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="239" spans="1:26" x14ac:dyDescent="0.2">
@@ -17173,7 +17167,7 @@
         <v>542</v>
       </c>
       <c r="D239" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E239">
         <v>2008</v>
@@ -17188,13 +17182,13 @@
         <v>271</v>
       </c>
       <c r="P239" s="4" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="Q239" s="4" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="R239" s="4" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="S239" s="4" t="s">
         <v>414</v>
@@ -17205,7 +17199,7 @@
         <v>148</v>
       </c>
       <c r="W239" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="240" spans="1:26" x14ac:dyDescent="0.2">
@@ -17214,7 +17208,7 @@
         <v>Katie Muldoon</v>
       </c>
       <c r="B240" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C240" t="s">
         <v>472</v>
@@ -17241,7 +17235,7 @@
         <v>156</v>
       </c>
       <c r="W240" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="241" spans="1:26" x14ac:dyDescent="0.2">
@@ -17271,19 +17265,19 @@
         <v>270</v>
       </c>
       <c r="Q241" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="R241" t="s">
         <v>151</v>
       </c>
       <c r="S241" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="V241" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="W241" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="242" spans="1:26" x14ac:dyDescent="0.2">
@@ -17307,7 +17301,7 @@
         <v>2015</v>
       </c>
       <c r="L242" t="s">
-        <v>924</v>
+        <v>1817</v>
       </c>
       <c r="M242" t="s">
         <v>271</v>
@@ -17316,13 +17310,13 @@
         <v>707</v>
       </c>
       <c r="Q242" s="4" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="R242" s="4" t="s">
         <v>398</v>
       </c>
       <c r="S242" s="4" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="T242" s="4"/>
       <c r="U242" s="4"/>
@@ -17330,7 +17324,7 @@
         <v>152</v>
       </c>
       <c r="W242" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="243" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17362,29 +17356,29 @@
         <v>549</v>
       </c>
       <c r="M243" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="N243"/>
       <c r="O243"/>
       <c r="P243" s="4" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="Q243" s="4" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="R243" s="4" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="S243" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T243" s="4"/>
       <c r="U243" s="4"/>
       <c r="V243" s="4" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="W243" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="X243"/>
       <c r="Y243"/>
@@ -17443,7 +17437,7 @@
         <v>257</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E245" s="2">
         <v>1994</v>
@@ -17455,22 +17449,22 @@
         <v>547</v>
       </c>
       <c r="M245" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="P245" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="P245" s="2" t="s">
+      <c r="Q245" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="Q245" s="2" t="s">
+      <c r="R245" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="R245" s="2" t="s">
+      <c r="S245" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="S245" s="2" t="s">
+      <c r="V245" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="V245" s="2" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="246" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -17507,24 +17501,24 @@
       <c r="N246"/>
       <c r="O246"/>
       <c r="P246" s="4" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q246" s="4" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="R246" s="4" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="S246" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T246" s="4"/>
       <c r="U246" s="4"/>
       <c r="V246" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="W246" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="X246"/>
       <c r="Y246"/>
@@ -17554,13 +17548,13 @@
         <v>720</v>
       </c>
       <c r="M247" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="Q247" s="4" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="R247" s="4" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="S247" s="4" t="s">
         <v>142</v>
@@ -17571,7 +17565,7 @@
         <v>148</v>
       </c>
       <c r="W247" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="248" spans="1:26" x14ac:dyDescent="0.2">
@@ -17646,22 +17640,22 @@
         <v>268</v>
       </c>
       <c r="P249" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q249" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="R249" t="s">
         <v>1024</v>
       </c>
-      <c r="Q249" s="4" t="s">
+      <c r="S249" t="s">
+        <v>894</v>
+      </c>
+      <c r="V249" s="4" t="s">
         <v>1025</v>
       </c>
-      <c r="R249" t="s">
+      <c r="W249" t="s">
         <v>1026</v>
-      </c>
-      <c r="S249" t="s">
-        <v>895</v>
-      </c>
-      <c r="V249" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="W249" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.2">
@@ -17691,7 +17685,7 @@
         <v>270</v>
       </c>
       <c r="Q250" s="4" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="R250" s="4" t="s">
         <v>219</v>
@@ -17705,7 +17699,7 @@
         <v>220</v>
       </c>
       <c r="W250" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="251" spans="1:26" x14ac:dyDescent="0.2">
@@ -17735,7 +17729,7 @@
         <v>268</v>
       </c>
       <c r="Q251" s="4" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="R251" s="4" t="s">
         <v>738</v>
@@ -17749,7 +17743,7 @@
         <v>152</v>
       </c>
       <c r="W251" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="252" spans="1:26" x14ac:dyDescent="0.2">
@@ -17764,7 +17758,7 @@
         <v>393</v>
       </c>
       <c r="D252" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="E252">
         <v>1982</v>
@@ -17779,13 +17773,13 @@
         <v>271</v>
       </c>
       <c r="P252" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="Q252" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="R252" s="4" t="s">
         <v>1220</v>
-      </c>
-      <c r="Q252" s="4" t="s">
-        <v>1221</v>
-      </c>
-      <c r="R252" s="4" t="s">
-        <v>1222</v>
       </c>
       <c r="S252" s="4" t="s">
         <v>638</v>
@@ -17793,10 +17787,10 @@
       <c r="T252" s="4"/>
       <c r="U252" s="4"/>
       <c r="V252" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="W252" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="253" spans="1:26" x14ac:dyDescent="0.2">
@@ -17805,10 +17799,10 @@
         <v>Kate Nowak</v>
       </c>
       <c r="B253" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C253" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D253" t="s">
         <v>486</v>
@@ -17826,24 +17820,24 @@
         <v>271</v>
       </c>
       <c r="P253" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="Q253" s="4" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="R253" s="4" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="S253" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="T253" s="4"/>
       <c r="U253" s="4"/>
       <c r="V253" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="W253" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="254" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -17855,10 +17849,10 @@
         <v>321</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E254" s="2">
         <v>1985</v>
@@ -17880,13 +17874,13 @@
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
       <c r="P254" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Q254" s="2" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="R254" s="2" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="S254" s="2" t="s">
         <v>753</v>
@@ -17894,11 +17888,11 @@
       <c r="T254" s="2"/>
       <c r="U254" s="2"/>
       <c r="V254" s="2" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="W254" s="2"/>
       <c r="X254" s="2" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
@@ -17973,13 +17967,13 @@
         <v>271</v>
       </c>
       <c r="Q256" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="R256" s="4" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="S256" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="T256" s="4"/>
       <c r="U256" s="4"/>
@@ -17987,7 +17981,7 @@
         <v>736</v>
       </c>
       <c r="W256" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="257" spans="1:26" x14ac:dyDescent="0.2">
@@ -18017,13 +18011,13 @@
         <v>271</v>
       </c>
       <c r="P257" s="4" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="Q257" s="4" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="R257" s="4" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="S257" s="4" t="s">
         <v>753</v>
@@ -18034,7 +18028,7 @@
         <v>220</v>
       </c>
       <c r="W257" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.2">
@@ -18077,7 +18071,7 @@
       <c r="X258" s="10"/>
       <c r="Y258" s="10"/>
       <c r="Z258" s="10" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="259" spans="1:26" x14ac:dyDescent="0.2">
@@ -18104,19 +18098,19 @@
         <v>550</v>
       </c>
       <c r="M259" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="P259" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q259" s="4" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="R259" s="4" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="S259" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T259" s="4"/>
       <c r="U259" s="4"/>
@@ -18124,7 +18118,7 @@
         <v>152</v>
       </c>
       <c r="W259" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="260" spans="1:26" x14ac:dyDescent="0.2">
@@ -18161,25 +18155,25 @@
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
       <c r="P260" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="Q260" s="2" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="R260" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="S260" s="2" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="T260" s="2"/>
       <c r="U260" s="2"/>
       <c r="V260" s="2" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="W260" s="2"/>
       <c r="X260" s="2" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
@@ -18218,7 +18212,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
       <c r="P261" s="2" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="Q261" s="2"/>
       <c r="R261" s="2"/>
@@ -18265,24 +18259,24 @@
       <c r="N262"/>
       <c r="O262"/>
       <c r="P262" s="4" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="Q262" s="4" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="R262" s="4" t="s">
         <v>710</v>
       </c>
       <c r="S262" s="4" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="T262" s="4"/>
       <c r="U262" s="4"/>
       <c r="V262" s="4" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="W262" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="X262"/>
       <c r="Y262"/>
@@ -18300,7 +18294,7 @@
         <v>536</v>
       </c>
       <c r="D263" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E263">
         <v>2012</v>
@@ -18317,27 +18311,27 @@
         <v>548</v>
       </c>
       <c r="M263" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N263"/>
       <c r="O263"/>
       <c r="P263" s="4"/>
       <c r="Q263" s="4" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="R263" s="4" t="s">
         <v>710</v>
       </c>
       <c r="S263" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="T263"/>
       <c r="U263"/>
       <c r="V263" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="W263" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="X263"/>
       <c r="Y263"/>
@@ -18352,10 +18346,10 @@
         <v>126</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E264" s="2">
         <v>1980</v>
@@ -18415,13 +18409,13 @@
         <v>271</v>
       </c>
       <c r="Q265" s="4" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="R265" s="4" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="S265" s="4" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="T265" s="4"/>
       <c r="U265" s="4"/>
@@ -18429,7 +18423,7 @@
         <v>152</v>
       </c>
       <c r="W265" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="266" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -18438,7 +18432,7 @@
         <v>Lili Pew</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>508</v>
@@ -18456,22 +18450,22 @@
         <v>549</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q266" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="R266" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="S266" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="V266" s="2" t="s">
         <v>1520</v>
       </c>
-      <c r="R266" s="2" t="s">
+      <c r="X266" s="2" t="s">
         <v>1521</v>
-      </c>
-      <c r="S266" s="2" t="s">
-        <v>1522</v>
-      </c>
-      <c r="V266" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="X266" s="2" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="267" spans="1:26" x14ac:dyDescent="0.2">
@@ -18501,16 +18495,16 @@
         <v>268</v>
       </c>
       <c r="P267" s="4" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="Q267" s="4" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="R267" s="4" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="S267" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T267" s="4"/>
       <c r="U267" s="4"/>
@@ -18518,7 +18512,7 @@
         <v>148</v>
       </c>
       <c r="W267" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="268" spans="1:26" x14ac:dyDescent="0.2">
@@ -18533,7 +18527,7 @@
         <v>514</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="E268" s="4">
         <v>2010</v>
@@ -18555,13 +18549,13 @@
       <c r="N268" s="4"/>
       <c r="O268" s="4"/>
       <c r="P268" s="4" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="Q268" s="4" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="R268" s="4" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="S268" s="4" t="s">
         <v>414</v>
@@ -18572,7 +18566,7 @@
         <v>736</v>
       </c>
       <c r="W268" s="4" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="X268" s="4"/>
       <c r="Y268" s="4"/>
@@ -18584,13 +18578,13 @@
         <v>Jamie Phinney</v>
       </c>
       <c r="B269" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C269" t="s">
         <v>344</v>
       </c>
       <c r="D269" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E269">
         <v>2000</v>
@@ -18612,10 +18606,10 @@
       <c r="N269"/>
       <c r="O269"/>
       <c r="P269" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="Q269" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="R269"/>
       <c r="S269" s="4" t="s">
@@ -18624,13 +18618,13 @@
       <c r="T269" s="4"/>
       <c r="U269" s="4"/>
       <c r="V269" s="4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="W269" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="X269" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="Y269"/>
       <c r="Z269"/>
@@ -18647,7 +18641,7 @@
         <v>587</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E270" s="2">
         <v>1998</v>
@@ -18706,7 +18700,7 @@
       <c r="J271"/>
       <c r="K271"/>
       <c r="L271" t="s">
-        <v>924</v>
+        <v>1817</v>
       </c>
       <c r="M271" t="s">
         <v>679</v>
@@ -18714,16 +18708,16 @@
       <c r="N271"/>
       <c r="O271"/>
       <c r="P271" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="Q271" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R271" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="S271" s="4" t="s">
         <v>1530</v>
-      </c>
-      <c r="Q271" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="R271" s="4" t="s">
-        <v>1532</v>
-      </c>
-      <c r="S271" s="4" t="s">
-        <v>1533</v>
       </c>
       <c r="T271" s="4"/>
       <c r="U271" s="4"/>
@@ -18731,7 +18725,7 @@
         <v>671</v>
       </c>
       <c r="W271" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="X271"/>
       <c r="Y271"/>
@@ -18743,13 +18737,13 @@
         <v>Meggie Powers</v>
       </c>
       <c r="B272" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C272" t="s">
         <v>581</v>
       </c>
       <c r="D272" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E272">
         <v>2004</v>
@@ -18772,10 +18766,10 @@
       <c r="O272"/>
       <c r="P272" s="4"/>
       <c r="Q272" s="4" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="R272" s="4" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="S272" s="4" t="s">
         <v>25</v>
@@ -18783,10 +18777,10 @@
       <c r="T272" s="4"/>
       <c r="U272" s="4"/>
       <c r="V272" s="4" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="W272" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="X272"/>
       <c r="Y272"/>
@@ -18828,15 +18822,15 @@
       <c r="Q273" s="4"/>
       <c r="R273" s="4"/>
       <c r="S273" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T273" s="4"/>
       <c r="U273" s="4"/>
       <c r="V273" s="4" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="W273" s="4" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="X273" s="4"/>
       <c r="Y273" s="4"/>
@@ -18876,16 +18870,16 @@
       <c r="N274" s="4"/>
       <c r="O274" s="4"/>
       <c r="P274" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="Q274" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="R274" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="S274" s="4" t="s">
         <v>1545</v>
-      </c>
-      <c r="Q274" s="4" t="s">
-        <v>1546</v>
-      </c>
-      <c r="R274" s="4" t="s">
-        <v>1547</v>
-      </c>
-      <c r="S274" s="4" t="s">
-        <v>1548</v>
       </c>
       <c r="T274" s="4"/>
       <c r="U274" s="4"/>
@@ -18893,7 +18887,7 @@
         <v>156</v>
       </c>
       <c r="W274" s="4" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="X274" s="4"/>
       <c r="Y274" s="4"/>
@@ -18935,15 +18929,15 @@
       <c r="Q275" s="4"/>
       <c r="R275" s="4"/>
       <c r="S275" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T275" s="4"/>
       <c r="U275" s="4"/>
       <c r="V275" s="4" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="W275" s="4" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="X275" s="4"/>
       <c r="Y275" s="4"/>
@@ -18961,7 +18955,7 @@
         <v>511</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="E276" s="2">
         <v>1983</v>
@@ -18988,7 +18982,7 @@
         <v>365</v>
       </c>
       <c r="D277" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E277">
         <v>2012</v>
@@ -19006,16 +19000,16 @@
         <v>265</v>
       </c>
       <c r="O277" t="s">
+        <v>1140</v>
+      </c>
+      <c r="P277" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="Q277" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R277" s="4" t="s">
         <v>1142</v>
-      </c>
-      <c r="P277" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="Q277" s="4" t="s">
-        <v>1143</v>
-      </c>
-      <c r="R277" s="4" t="s">
-        <v>1144</v>
       </c>
       <c r="S277" s="4" t="s">
         <v>753</v>
@@ -19023,10 +19017,10 @@
       <c r="T277" s="4"/>
       <c r="U277" s="4"/>
       <c r="V277" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="W277" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="278" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -19058,12 +19052,12 @@
         <v>712</v>
       </c>
       <c r="M278" s="10" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="N278" s="10"/>
       <c r="O278" s="10"/>
       <c r="P278" s="10" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="Q278" s="10"/>
       <c r="R278" s="10"/>
@@ -19075,7 +19069,7 @@
       <c r="X278" s="10"/>
       <c r="Y278" s="10"/>
       <c r="Z278" s="10" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="279" spans="1:26" x14ac:dyDescent="0.2">
@@ -19087,10 +19081,10 @@
         <v>50</v>
       </c>
       <c r="C279" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D279" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E279">
         <v>2003</v>
@@ -19102,24 +19096,24 @@
         <v>545</v>
       </c>
       <c r="M279" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P279" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="R279" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="S279" s="4" t="s">
         <v>1230</v>
-      </c>
-      <c r="P279" s="4" t="s">
-        <v>1319</v>
-      </c>
-      <c r="R279" s="4" t="s">
-        <v>1231</v>
-      </c>
-      <c r="S279" s="4" t="s">
-        <v>1232</v>
       </c>
       <c r="T279" s="4"/>
       <c r="U279" s="4"/>
       <c r="V279" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="W279" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="280" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -19134,7 +19128,7 @@
         <v>515</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E280" s="4">
         <v>2002</v>
@@ -19149,19 +19143,19 @@
         <v>271</v>
       </c>
       <c r="Q280" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="R280" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="S280" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="V280" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="W280" s="4" t="s">
         <v>1541</v>
-      </c>
-      <c r="R280" s="4" t="s">
-        <v>1542</v>
-      </c>
-      <c r="S280" s="4" t="s">
-        <v>1522</v>
-      </c>
-      <c r="V280" s="4" t="s">
-        <v>1543</v>
-      </c>
-      <c r="W280" s="4" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="281" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -19191,13 +19185,13 @@
         <v>675</v>
       </c>
       <c r="P281" s="4" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="Q281" s="4" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="R281" s="4" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="S281" s="2" t="s">
         <v>744</v>
@@ -19205,10 +19199,10 @@
       <c r="T281" s="2"/>
       <c r="U281" s="2"/>
       <c r="V281" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="W281" s="4" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="282" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -19245,13 +19239,13 @@
       <c r="N282"/>
       <c r="O282"/>
       <c r="P282" s="4" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="Q282" s="4" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="R282" s="4" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="S282" s="4" t="s">
         <v>25</v>
@@ -19260,7 +19254,7 @@
         <v>152</v>
       </c>
       <c r="W282" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="X282"/>
       <c r="Y282"/>
@@ -19300,10 +19294,10 @@
       <c r="N283"/>
       <c r="O283"/>
       <c r="Q283" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="R283" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="S283" t="s">
         <v>25</v>
@@ -19314,7 +19308,7 @@
         <v>148</v>
       </c>
       <c r="W283" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="X283"/>
       <c r="Y283"/>
@@ -19358,13 +19352,13 @@
       <c r="Q284"/>
       <c r="R284"/>
       <c r="S284" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="V284" t="s">
         <v>736</v>
       </c>
       <c r="W284" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="X284"/>
       <c r="Y284"/>
@@ -19405,13 +19399,13 @@
       <c r="O285"/>
       <c r="P285" s="4"/>
       <c r="Q285" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="R285" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="S285" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="T285"/>
       <c r="U285"/>
@@ -19419,7 +19413,7 @@
         <v>671</v>
       </c>
       <c r="W285" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="X285"/>
       <c r="Y285"/>
@@ -19454,12 +19448,12 @@
         <v>549</v>
       </c>
       <c r="M286" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="N286"/>
       <c r="O286"/>
       <c r="S286" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T286"/>
       <c r="U286"/>
@@ -19467,7 +19461,7 @@
         <v>152</v>
       </c>
       <c r="W286" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="X286"/>
       <c r="Y286"/>
@@ -19502,30 +19496,30 @@
         <v>549</v>
       </c>
       <c r="M287" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="N287"/>
       <c r="O287"/>
       <c r="P287" s="4" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="Q287" s="4" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="R287" s="4" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="S287" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="T287"/>
       <c r="U287"/>
       <c r="V287" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="W287"/>
       <c r="X287" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="Y287"/>
       <c r="Z287"/>
@@ -19564,25 +19558,25 @@
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
       <c r="P288" s="2" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="Q288" s="2" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="R288" s="2" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="S288" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T288" s="2"/>
       <c r="U288" s="2"/>
       <c r="V288" s="2" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="W288" s="2"/>
       <c r="X288" s="2" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
@@ -19599,7 +19593,7 @@
         <v>559</v>
       </c>
       <c r="D289" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="E289">
         <v>1994</v>
@@ -19614,13 +19608,13 @@
         <v>271</v>
       </c>
       <c r="P289" s="4" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="V289" s="4" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="W289" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="290" spans="1:26" x14ac:dyDescent="0.2">
@@ -19689,16 +19683,16 @@
         <v>546</v>
       </c>
       <c r="M291" t="s">
+        <v>1585</v>
+      </c>
+      <c r="Q291" s="4" t="s">
+        <v>1586</v>
+      </c>
+      <c r="R291" s="4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="S291" s="4" t="s">
         <v>1588</v>
-      </c>
-      <c r="Q291" s="4" t="s">
-        <v>1589</v>
-      </c>
-      <c r="R291" s="4" t="s">
-        <v>1590</v>
-      </c>
-      <c r="S291" s="4" t="s">
-        <v>1591</v>
       </c>
       <c r="T291" s="4"/>
       <c r="U291" s="4"/>
@@ -19706,7 +19700,7 @@
         <v>152</v>
       </c>
       <c r="W291" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="292" spans="1:26" x14ac:dyDescent="0.2">
@@ -19718,7 +19712,7 @@
         <v>77</v>
       </c>
       <c r="C292" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D292" t="s">
         <v>664</v>
@@ -19778,16 +19772,16 @@
         <v>698</v>
       </c>
       <c r="P293" s="4" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Q293" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="R293" s="4" t="s">
+        <v>1596</v>
+      </c>
+      <c r="S293" s="4" t="s">
         <v>1597</v>
-      </c>
-      <c r="Q293" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="R293" s="4" t="s">
-        <v>1599</v>
-      </c>
-      <c r="S293" s="4" t="s">
-        <v>1600</v>
       </c>
       <c r="T293" s="4"/>
       <c r="U293" s="4"/>
@@ -19795,7 +19789,7 @@
         <v>189</v>
       </c>
       <c r="W293" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="294" spans="1:26" x14ac:dyDescent="0.2">
@@ -19804,7 +19798,7 @@
         <v>Kate Schutt</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>553</v>
@@ -19833,13 +19827,13 @@
       <c r="O294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" s="2" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="R294" s="2" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="S294" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="T294" s="2"/>
       <c r="U294" s="2"/>
@@ -19848,7 +19842,7 @@
       </c>
       <c r="W294" s="2"/>
       <c r="X294" s="2" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
@@ -19859,7 +19853,7 @@
         <v>Jill Scyocurka</v>
       </c>
       <c r="B295" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C295" t="s">
         <v>554</v>
@@ -19888,10 +19882,10 @@
       <c r="O295"/>
       <c r="P295" s="4"/>
       <c r="Q295" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="R295" s="4" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="S295" s="4" t="s">
         <v>25</v>
@@ -19902,7 +19896,7 @@
         <v>152</v>
       </c>
       <c r="W295" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="X295"/>
       <c r="Y295"/>
@@ -19937,29 +19931,29 @@
         <v>549</v>
       </c>
       <c r="M296" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="N296"/>
       <c r="O296"/>
       <c r="P296" s="4" t="s">
+        <v>1624</v>
+      </c>
+      <c r="Q296" s="4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="R296" s="4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="S296" s="4" t="s">
         <v>1627</v>
-      </c>
-      <c r="Q296" s="4" t="s">
-        <v>1628</v>
-      </c>
-      <c r="R296" s="4" t="s">
-        <v>1629</v>
-      </c>
-      <c r="S296" s="4" t="s">
-        <v>1630</v>
       </c>
       <c r="T296" s="4"/>
       <c r="U296" s="4"/>
       <c r="V296" s="4" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="W296" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="X296"/>
       <c r="Y296"/>
@@ -19992,16 +19986,16 @@
         <v>266</v>
       </c>
       <c r="P297" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="Q297" s="4" t="s">
+        <v>1634</v>
+      </c>
+      <c r="R297" s="4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S297" s="4" t="s">
         <v>1636</v>
-      </c>
-      <c r="Q297" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="R297" s="4" t="s">
-        <v>1638</v>
-      </c>
-      <c r="S297" s="4" t="s">
-        <v>1639</v>
       </c>
       <c r="T297" s="4"/>
       <c r="U297" s="4"/>
@@ -20009,7 +20003,7 @@
         <v>736</v>
       </c>
       <c r="W297" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="298" spans="1:26" x14ac:dyDescent="0.2">
@@ -20021,10 +20015,10 @@
         <v>562</v>
       </c>
       <c r="C298" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="D298" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="E298">
         <v>2000</v>
@@ -20036,25 +20030,25 @@
         <v>546</v>
       </c>
       <c r="M298" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P298" s="4" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="Q298" s="4"/>
       <c r="R298" s="4" t="s">
         <v>723</v>
       </c>
       <c r="S298" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T298" s="4"/>
       <c r="U298" s="4"/>
       <c r="V298" s="4" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="X298" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="299" spans="1:26" x14ac:dyDescent="0.2">
@@ -20084,10 +20078,10 @@
         <v>268</v>
       </c>
       <c r="P299" s="4" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="Q299" s="4" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="R299" s="4" t="s">
         <v>223</v>
@@ -20101,7 +20095,7 @@
         <v>148</v>
       </c>
       <c r="W299" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="300" spans="1:26" x14ac:dyDescent="0.2">
@@ -20131,10 +20125,10 @@
         <v>271</v>
       </c>
       <c r="Q300" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="R300" s="4" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="S300" s="4" t="s">
         <v>142</v>
@@ -20145,7 +20139,7 @@
         <v>736</v>
       </c>
       <c r="W300" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="301" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -20182,24 +20176,24 @@
       <c r="N301"/>
       <c r="O301"/>
       <c r="P301" s="4" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="Q301" s="4" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="R301" s="4" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="S301" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="T301" s="4"/>
       <c r="U301" s="4"/>
       <c r="V301" s="4" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="W301" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="X301"/>
       <c r="Y301"/>
@@ -20217,7 +20211,7 @@
         <v>485</v>
       </c>
       <c r="D302" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E302">
         <v>1996</v>
@@ -20232,16 +20226,16 @@
         <v>271</v>
       </c>
       <c r="P302" s="4" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="Q302" s="4" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="R302" s="4" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="S302" s="4" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="T302" s="4"/>
       <c r="U302" s="4"/>
@@ -20249,7 +20243,7 @@
         <v>152</v>
       </c>
       <c r="W302" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="303" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -20261,7 +20255,7 @@
         <v>115</v>
       </c>
       <c r="C303" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D303" t="s">
         <v>746</v>
@@ -20330,13 +20324,13 @@
         <v>268</v>
       </c>
       <c r="P304" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q304" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="R304" s="4" t="s">
         <v>1207</v>
-      </c>
-      <c r="Q304" s="4" t="s">
-        <v>1208</v>
-      </c>
-      <c r="R304" s="4" t="s">
-        <v>1209</v>
       </c>
       <c r="S304" s="4" t="s">
         <v>142</v>
@@ -20344,10 +20338,10 @@
       <c r="T304" s="4"/>
       <c r="U304" s="4"/>
       <c r="V304" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="W304" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="305" spans="1:26" x14ac:dyDescent="0.2">
@@ -20377,21 +20371,21 @@
         <v>268</v>
       </c>
       <c r="Q305" s="4" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="R305" s="4" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="S305" s="4" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="T305" s="4"/>
       <c r="U305" s="4"/>
       <c r="V305" s="4" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="W305" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="306" spans="1:26" x14ac:dyDescent="0.2">
@@ -20406,7 +20400,7 @@
         <v>632</v>
       </c>
       <c r="D306" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="E306">
         <v>1999</v>
@@ -20421,13 +20415,13 @@
         <v>268</v>
       </c>
       <c r="P306" s="4" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="Q306" s="4" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="R306" s="4" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="S306" s="4" t="s">
         <v>163</v>
@@ -20438,7 +20432,7 @@
         <v>148</v>
       </c>
       <c r="W306" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="307" spans="1:26" x14ac:dyDescent="0.2">
@@ -20468,24 +20462,24 @@
         <v>679</v>
       </c>
       <c r="P307" s="4" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="Q307" s="4" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="R307" s="4" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="S307" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T307" s="4"/>
       <c r="U307" s="4"/>
       <c r="V307" s="4" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="W307" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="308" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -20494,13 +20488,13 @@
         <v>Katie Southard</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>555</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="E308" s="2">
         <v>2003</v>
@@ -20515,7 +20509,7 @@
         <v>271</v>
       </c>
       <c r="X308" s="2" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="309" spans="1:26" x14ac:dyDescent="0.2">
@@ -20545,24 +20539,24 @@
         <v>268</v>
       </c>
       <c r="P309" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Q309" s="4" t="s">
+        <v>1669</v>
+      </c>
+      <c r="R309" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="S309" s="4" t="s">
         <v>1671</v>
-      </c>
-      <c r="Q309" s="4" t="s">
-        <v>1672</v>
-      </c>
-      <c r="R309" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="S309" s="4" t="s">
-        <v>1674</v>
       </c>
       <c r="T309" s="4"/>
       <c r="U309" s="4"/>
       <c r="V309" s="4" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="W309" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="310" spans="1:26" x14ac:dyDescent="0.2">
@@ -20577,7 +20571,7 @@
         <v>552</v>
       </c>
       <c r="D310" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="E310">
         <v>1993</v>
@@ -20592,21 +20586,21 @@
         <v>274</v>
       </c>
       <c r="Q310" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="R310" s="4" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="S310" s="4" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T310" s="4"/>
       <c r="U310" s="4"/>
       <c r="V310" s="4" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="X310" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="311" spans="1:26" x14ac:dyDescent="0.2">
@@ -20660,13 +20654,13 @@
         <v>Maggie Stebbins</v>
       </c>
       <c r="B312" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C312" t="s">
         <v>355</v>
       </c>
       <c r="D312" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E312">
         <v>1984</v>
@@ -20681,19 +20675,19 @@
         <v>265</v>
       </c>
       <c r="Q312" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="R312" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S312" t="s">
+        <v>1032</v>
+      </c>
+      <c r="V312" s="4" t="s">
         <v>1052</v>
       </c>
-      <c r="R312" t="s">
+      <c r="W312" t="s">
         <v>1053</v>
-      </c>
-      <c r="S312" t="s">
-        <v>1034</v>
-      </c>
-      <c r="V312" s="4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="W312" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="313" spans="1:26" x14ac:dyDescent="0.2">
@@ -20708,7 +20702,7 @@
         <v>526</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E313" s="4">
         <v>1991</v>
@@ -20730,13 +20724,13 @@
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
       <c r="Q313" s="4" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="R313" s="4" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="S313" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="T313" s="4"/>
       <c r="U313" s="4"/>
@@ -20744,7 +20738,7 @@
         <v>189</v>
       </c>
       <c r="W313" s="4" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="X313" s="4"/>
       <c r="Y313" s="4"/>
@@ -20759,7 +20753,7 @@
         <v>113</v>
       </c>
       <c r="C314" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D314" t="s">
         <v>741</v>
@@ -20835,10 +20829,10 @@
         <v>673</v>
       </c>
       <c r="Q315" s="4" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="R315" s="4" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="S315" s="4" t="s">
         <v>753</v>
@@ -20846,10 +20840,10 @@
       <c r="T315" s="4"/>
       <c r="U315" s="4"/>
       <c r="V315" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="W315" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="316" spans="1:26" x14ac:dyDescent="0.2">
@@ -20879,24 +20873,24 @@
         <v>268</v>
       </c>
       <c r="P316" s="4" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="Q316" s="4" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="R316" s="4" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="S316" s="4" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="T316" s="4"/>
       <c r="U316" s="4"/>
       <c r="V316" s="4" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="W316" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="317" spans="1:26" x14ac:dyDescent="0.2">
@@ -20973,7 +20967,7 @@
         <v>705</v>
       </c>
       <c r="M318" s="10" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="N318" s="10"/>
       <c r="O318" s="10"/>
@@ -20988,7 +20982,7 @@
       <c r="X318" s="10"/>
       <c r="Y318" s="10"/>
       <c r="Z318" s="10" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="319" spans="1:26" x14ac:dyDescent="0.2">
@@ -21020,7 +21014,7 @@
         <v>547</v>
       </c>
       <c r="M319" s="10" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="N319" s="10"/>
       <c r="O319" s="10"/>
@@ -21035,7 +21029,7 @@
       <c r="X319" s="10"/>
       <c r="Y319" s="10"/>
       <c r="Z319" s="10" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="320" spans="1:26" x14ac:dyDescent="0.2">
@@ -21050,7 +21044,7 @@
         <v>292</v>
       </c>
       <c r="D320" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E320">
         <v>1982</v>
@@ -21062,22 +21056,22 @@
         <v>549</v>
       </c>
       <c r="M320" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q320" t="s">
+        <v>905</v>
+      </c>
+      <c r="R320" t="s">
         <v>906</v>
       </c>
-      <c r="R320" t="s">
+      <c r="S320" t="s">
         <v>907</v>
-      </c>
-      <c r="S320" t="s">
-        <v>908</v>
       </c>
       <c r="V320" t="s">
         <v>148</v>
       </c>
       <c r="W320" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="321" spans="1:26" x14ac:dyDescent="0.2">
@@ -21160,21 +21154,21 @@
       <c r="O322"/>
       <c r="P322" s="4"/>
       <c r="Q322" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="R322" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="S322" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="T322"/>
       <c r="U322"/>
       <c r="V322" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="W322" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="X322"/>
       <c r="Y322"/>
@@ -21207,19 +21201,19 @@
         <v>271</v>
       </c>
       <c r="Q323" t="s">
+        <v>1700</v>
+      </c>
+      <c r="R323" t="s">
+        <v>1701</v>
+      </c>
+      <c r="S323" t="s">
+        <v>1702</v>
+      </c>
+      <c r="V323" t="s">
+        <v>761</v>
+      </c>
+      <c r="W323" t="s">
         <v>1703</v>
-      </c>
-      <c r="R323" t="s">
-        <v>1704</v>
-      </c>
-      <c r="S323" t="s">
-        <v>1705</v>
-      </c>
-      <c r="V323" t="s">
-        <v>762</v>
-      </c>
-      <c r="W323" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="324" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -21257,7 +21251,7 @@
       <c r="O324"/>
       <c r="P324" s="4"/>
       <c r="Q324" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="R324" t="s">
         <v>670</v>
@@ -21271,7 +21265,7 @@
         <v>736</v>
       </c>
       <c r="W324" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="X324"/>
       <c r="Y324"/>
@@ -21289,7 +21283,7 @@
         <v>476</v>
       </c>
       <c r="D325" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E325">
         <v>1988</v>
@@ -21306,21 +21300,21 @@
         <v>720</v>
       </c>
       <c r="M325" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="N325"/>
       <c r="O325"/>
       <c r="P325" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="Q325" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="Q325" s="4" t="s">
-        <v>1436</v>
-      </c>
       <c r="R325" s="4" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="S325" s="4" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="T325" s="4"/>
       <c r="U325" s="4"/>
@@ -21329,7 +21323,7 @@
       </c>
       <c r="W325"/>
       <c r="X325" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="Y325"/>
       <c r="Z325"/>
@@ -21346,7 +21340,7 @@
         <v>565</v>
       </c>
       <c r="D326" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="E326">
         <v>1986</v>
@@ -21368,24 +21362,24 @@
       <c r="N326"/>
       <c r="O326"/>
       <c r="P326" s="4" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="Q326" s="4" t="s">
+        <v>1651</v>
+      </c>
+      <c r="R326" s="4" t="s">
+        <v>1650</v>
+      </c>
+      <c r="S326" s="4" t="s">
         <v>1654</v>
-      </c>
-      <c r="R326" s="4" t="s">
-        <v>1653</v>
-      </c>
-      <c r="S326" s="4" t="s">
-        <v>1657</v>
       </c>
       <c r="T326" s="4"/>
       <c r="U326" s="4"/>
       <c r="V326" s="4" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="W326" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="X326"/>
       <c r="Y326"/>
@@ -21400,10 +21394,10 @@
         <v>136</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E327" s="2">
         <v>2008</v>
@@ -21418,7 +21412,7 @@
         <v>278</v>
       </c>
       <c r="Q327" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V327" s="2" t="s">
         <v>152</v>
@@ -21464,10 +21458,10 @@
       <c r="T328"/>
       <c r="U328"/>
       <c r="V328" s="4" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="W328" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="X328"/>
       <c r="Y328"/>
@@ -21500,19 +21494,19 @@
         <v>268</v>
       </c>
       <c r="Q329" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="R329" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="S329" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="V329" t="s">
         <v>220</v>
       </c>
       <c r="W329" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.2">
@@ -21542,19 +21536,19 @@
         <v>679</v>
       </c>
       <c r="Q330" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="R330" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="S330" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="V330" t="s">
         <v>692</v>
       </c>
       <c r="W330" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.2">
@@ -21581,22 +21575,22 @@
         <v>550</v>
       </c>
       <c r="M331" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q331" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="R331" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="S331" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="V331" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="W331" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.2">
@@ -21611,7 +21605,7 @@
         <v>426</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E332" s="4">
         <v>2007</v>
@@ -21628,15 +21622,15 @@
         <v>550</v>
       </c>
       <c r="M332" s="4" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="N332" s="4"/>
       <c r="O332" s="4"/>
       <c r="Q332" s="4" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="R332" s="4" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="S332" s="4" t="s">
         <v>142</v>
@@ -21644,10 +21638,10 @@
       <c r="T332" s="4"/>
       <c r="U332" s="4"/>
       <c r="V332" s="4" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="W332" s="4" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="X332" s="4"/>
       <c r="Y332" s="4"/>
@@ -21680,22 +21674,22 @@
         <v>679</v>
       </c>
       <c r="P333" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="Q333" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="R333" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="S333" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="V333" t="s">
         <v>152</v>
       </c>
       <c r="W333" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.2">
@@ -21722,27 +21716,27 @@
         <v>549</v>
       </c>
       <c r="M334" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="P334" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="Q334" s="4" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="R334" s="4" t="s">
         <v>215</v>
       </c>
       <c r="S334" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="T334" s="4"/>
       <c r="U334" s="4"/>
       <c r="V334" s="4" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="W334" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.2">
@@ -21779,25 +21773,25 @@
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
       <c r="P335" s="2" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="Q335" s="2" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="R335" s="2" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="S335" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T335" s="2"/>
       <c r="U335" s="2"/>
       <c r="V335" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W335" s="2"/>
       <c r="X335" s="2" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
@@ -21826,13 +21820,13 @@
         <v>549</v>
       </c>
       <c r="M336" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="V336" t="s">
         <v>152</v>
       </c>
       <c r="W336" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="337" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -21870,21 +21864,21 @@
       <c r="O337"/>
       <c r="P337" s="4"/>
       <c r="Q337" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="R337" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="S337" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="T337"/>
       <c r="U337"/>
       <c r="V337" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="W337" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="X337"/>
       <c r="Y337"/>
@@ -21896,13 +21890,13 @@
         <v>Maggie Vaughan</v>
       </c>
       <c r="B338" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C338" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D338" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="E338">
         <v>1990</v>
@@ -21917,24 +21911,24 @@
         <v>698</v>
       </c>
       <c r="P338" s="4" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="Q338" s="4" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="R338" s="4" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="S338" s="4" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="T338" s="4"/>
       <c r="U338" s="4"/>
       <c r="V338" s="4" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="W338" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="339" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -21949,7 +21943,7 @@
         <v>310</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E339" s="2">
         <v>1990</v>
@@ -21964,10 +21958,10 @@
         <v>270</v>
       </c>
       <c r="P339" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="V339" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="V339" s="2" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.2">
@@ -21976,7 +21970,7 @@
         <v>Ann Elizabeth Velie</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>605</v>
@@ -22004,16 +21998,16 @@
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
       <c r="P340" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="Q340" s="2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="R340" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="Q340" s="2" t="s">
-        <v>1739</v>
-      </c>
-      <c r="R340" s="2" t="s">
-        <v>1740</v>
-      </c>
       <c r="S340" s="2" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="T340" s="2"/>
       <c r="U340" s="2"/>
@@ -22022,7 +22016,7 @@
       </c>
       <c r="W340" s="2"/>
       <c r="X340" s="2" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
@@ -22056,30 +22050,30 @@
         <v>547</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
       <c r="P341" s="2" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="Q341" s="2" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="R341" s="2" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="S341" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T341" s="2"/>
       <c r="U341" s="2"/>
       <c r="V341" s="2" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="W341" s="2"/>
       <c r="X341" s="2" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
@@ -22108,10 +22102,10 @@
         <v>548</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P342" s="2" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="343" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22149,13 +22143,13 @@
       <c r="O343"/>
       <c r="P343" s="4"/>
       <c r="Q343" s="4" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="R343" s="4" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="S343" s="4" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="T343" s="4"/>
       <c r="U343" s="4"/>
@@ -22163,7 +22157,7 @@
         <v>148</v>
       </c>
       <c r="W343" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="X343"/>
       <c r="Y343"/>
@@ -22203,16 +22197,16 @@
       <c r="N344" s="4"/>
       <c r="O344" s="4"/>
       <c r="P344" s="4" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="Q344" s="4" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="R344" s="4" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="S344" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T344" s="4"/>
       <c r="U344" s="4"/>
@@ -22220,7 +22214,7 @@
         <v>639</v>
       </c>
       <c r="W344" s="4" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="X344" s="4"/>
       <c r="Y344" s="4"/>
@@ -22252,24 +22246,24 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
       <c r="L345" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="N345" s="2"/>
       <c r="O345" s="2"/>
       <c r="P345" s="2" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="Q345" s="2" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="R345" s="2" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="S345" s="2" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="T345" s="2"/>
       <c r="U345" s="2"/>
@@ -22278,7 +22272,7 @@
       </c>
       <c r="W345" s="2"/>
       <c r="X345" s="2" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
@@ -22310,19 +22304,19 @@
         <v>271</v>
       </c>
       <c r="Q346" s="4" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="R346" s="4" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="S346" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="V346" s="4" t="s">
         <v>148</v>
       </c>
       <c r="W346" s="4" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="347" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22334,10 +22328,10 @@
         <v>63</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="E347" s="2">
         <v>1983</v>
@@ -22346,7 +22340,7 @@
         <v>1983</v>
       </c>
       <c r="L347" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="M347" s="2" t="s">
         <v>265</v>
@@ -22361,7 +22355,7 @@
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D348" t="s">
         <v>185</v>
@@ -22412,13 +22406,13 @@
         <v>Ali Watters</v>
       </c>
       <c r="B349" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C349" t="s">
         <v>361</v>
       </c>
       <c r="D349" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E349">
         <v>2008</v>
@@ -22441,10 +22435,10 @@
       <c r="O349"/>
       <c r="P349" s="4"/>
       <c r="Q349" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R349" t="s">
         <v>1071</v>
-      </c>
-      <c r="R349" t="s">
-        <v>1073</v>
       </c>
       <c r="S349" s="4" t="s">
         <v>753</v>
@@ -22455,7 +22449,7 @@
         <v>148</v>
       </c>
       <c r="W349" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="X349"/>
       <c r="Y349"/>
@@ -22473,7 +22467,7 @@
         <v>352</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E350" s="2">
         <v>2004</v>
@@ -22540,19 +22534,19 @@
       <c r="N351"/>
       <c r="O351"/>
       <c r="Q351" s="4" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="R351" s="4" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="S351" s="4" t="s">
         <v>25</v>
       </c>
       <c r="V351" s="4" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="W351" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="X351"/>
       <c r="Y351"/>
@@ -22585,19 +22579,19 @@
         <v>268</v>
       </c>
       <c r="P352" s="4" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="Q352" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="R352" s="4" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="V352" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="W352" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="353" spans="1:26" x14ac:dyDescent="0.2">
@@ -22612,7 +22606,7 @@
         <v>488</v>
       </c>
       <c r="D353" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="E353">
         <v>2006</v>
@@ -22627,7 +22621,7 @@
         <v>270</v>
       </c>
       <c r="Q353" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="R353" s="4" t="s">
         <v>685</v>
@@ -22641,7 +22635,7 @@
         <v>148</v>
       </c>
       <c r="W353" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="354" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22697,7 +22691,7 @@
         <v>613</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="E355" s="2">
         <v>1990</v>
@@ -22764,25 +22758,25 @@
       <c r="N356" s="2"/>
       <c r="O356" s="2"/>
       <c r="P356" s="2" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="Q356" s="2" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="R356" s="2" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="S356" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="T356" s="2"/>
       <c r="U356" s="2"/>
       <c r="V356" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="W356" s="2"/>
       <c r="X356" s="2" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
@@ -22799,7 +22793,7 @@
         <v>467</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E357" s="2">
         <v>1980</v>
@@ -22811,7 +22805,7 @@
         <v>546</v>
       </c>
       <c r="M357" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="358" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -22848,13 +22842,13 @@
       <c r="N358"/>
       <c r="O358"/>
       <c r="P358" s="4" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="Q358" s="4" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="R358" s="4" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="S358" s="4" t="s">
         <v>163</v>
@@ -22865,7 +22859,7 @@
         <v>189</v>
       </c>
       <c r="W358" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="X358"/>
       <c r="Y358"/>
@@ -22898,19 +22892,19 @@
         <v>270</v>
       </c>
       <c r="Q359" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="R359" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="S359" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="V359" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="W359" s="4" t="s">
         <v>1789</v>
-      </c>
-      <c r="R359" s="4" t="s">
-        <v>1790</v>
-      </c>
-      <c r="S359" s="4" t="s">
-        <v>1522</v>
-      </c>
-      <c r="V359" s="4" t="s">
-        <v>1791</v>
-      </c>
-      <c r="W359" s="4" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.2">
@@ -22940,19 +22934,19 @@
         <v>271</v>
       </c>
       <c r="Q360" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="R360" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="S360" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="V360" t="s">
         <v>152</v>
       </c>
       <c r="W360" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.2">
@@ -22967,7 +22961,7 @@
         <v>70</v>
       </c>
       <c r="D361" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E361">
         <v>1979</v>
@@ -22982,22 +22976,22 @@
         <v>273</v>
       </c>
       <c r="P361" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>1092</v>
+      </c>
+      <c r="R361" t="s">
         <v>1093</v>
-      </c>
-      <c r="Q361" t="s">
-        <v>1094</v>
-      </c>
-      <c r="R361" t="s">
-        <v>1095</v>
       </c>
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
       <c r="U361" s="2"/>
       <c r="V361" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="W361" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.2">
@@ -23024,13 +23018,13 @@
         <v>270</v>
       </c>
       <c r="P362" s="4" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="Q362" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="R362" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="S362" t="s">
         <v>25</v>
@@ -23039,7 +23033,7 @@
         <v>156</v>
       </c>
       <c r="W362" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.2">
@@ -23054,7 +23048,7 @@
         <v>432</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="E363" s="2">
         <v>1989</v>
@@ -23076,13 +23070,13 @@
       <c r="N363" s="2"/>
       <c r="O363" s="2"/>
       <c r="P363" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="Q363" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="R363" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="Q363" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="R363" s="2" t="s">
-        <v>1307</v>
       </c>
       <c r="S363" s="2" t="s">
         <v>163</v>
@@ -23090,11 +23084,11 @@
       <c r="T363" s="2"/>
       <c r="U363" s="2"/>
       <c r="V363" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="W363" s="2"/>
       <c r="X363" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
@@ -23126,7 +23120,7 @@
         <v>675</v>
       </c>
       <c r="P364" s="2" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>

--- a/directory_app/raw_data/WLAX_LETTERWINNER_DATA_complete.xlsx
+++ b/directory_app/raw_data/WLAX_LETTERWINNER_DATA_complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracerotondo/Desktop/GOV1005 /Project/WLAX_Directory/directory_app/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6DFF92-9399-B24E-9A10-287804AED3A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD19184-48ED-4145-A2DC-FEF9F9AB7DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="460" windowWidth="24780" windowHeight="16120" xr2:uid="{EA26E0FC-545C-F54D-9B10-F7662692507E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="1819">
   <si>
     <t>Name</t>
   </si>
@@ -5487,6 +5487,9 @@
   </si>
   <si>
     <t>Pforzheimer</t>
+  </si>
+  <si>
+    <t>Canning</t>
   </si>
 </sst>
 </file>
@@ -5910,14 +5913,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8520AADE-8F57-7342-A682-D1D49773B414}">
   <dimension ref="A1:Z364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L115" sqref="L115"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="135" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
@@ -12986,8 +12989,8 @@
     </row>
     <row r="152" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Elizabeth Hansen</v>
+        <f>CONCATENATE(B152, " ", D152)</f>
+        <v>Elizabeth Canning</v>
       </c>
       <c r="B152" t="s">
         <v>51</v>
@@ -12996,7 +12999,7 @@
         <v>349</v>
       </c>
       <c r="D152" t="s">
-        <v>349</v>
+        <v>1818</v>
       </c>
       <c r="E152">
         <v>1992</v>
